--- a/Report/AA/CP.xlsx
+++ b/Report/AA/CP.xlsx
@@ -506,10 +506,10 @@
         <v>40939</v>
       </c>
       <c r="B2" t="n">
-        <v>107.1899642944336</v>
+        <v>107.1899795532227</v>
       </c>
       <c r="C2" t="n">
-        <v>88.25540161132812</v>
+        <v>88.25535583496094</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -543,31 +543,31 @@
         <v>111.8426055908203</v>
       </c>
       <c r="C3" t="n">
-        <v>87.28469848632812</v>
+        <v>87.28469085693359</v>
       </c>
       <c r="D3" t="n">
-        <v>4.340556811462926</v>
+        <v>4.340541958297051</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.09987956235803</v>
+        <v>-1.099836909436414</v>
       </c>
       <c r="F3" t="n">
-        <v>52.17027840573147</v>
+        <v>52.17027097914853</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49.45006021882099</v>
+        <v>49.45008154528179</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.099879562358026</v>
+        <v>-1.099836909436419</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>101.6203386245525</v>
+        <v>101.6203525244303</v>
       </c>
       <c r="L3" t="n">
         <v>-0</v>
@@ -578,34 +578,34 @@
         <v>40999</v>
       </c>
       <c r="B4" t="n">
-        <v>115.4398803710938</v>
+        <v>115.4399108886719</v>
       </c>
       <c r="C4" t="n">
         <v>85.89575958251953</v>
       </c>
       <c r="D4" t="n">
-        <v>3.216372473862217</v>
+        <v>3.216399760045308</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.591274218614791</v>
+        <v>-1.591265616888793</v>
       </c>
       <c r="F4" t="n">
-        <v>53.8482688799107</v>
+        <v>53.84827544973685</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6631741594694</v>
+        <v>48.66319940012825</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.673651681061202</v>
+        <v>-2.673601199743501</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.5114430393801</v>
+        <v>102.5114748498651</v>
       </c>
       <c r="L4" t="n">
         <v>-0</v>
@@ -616,34 +616,34 @@
         <v>41029</v>
       </c>
       <c r="B5" t="n">
-        <v>114.6692581176758</v>
+        <v>114.6692352294922</v>
       </c>
       <c r="C5" t="n">
-        <v>88.05101013183594</v>
+        <v>88.05103302001953</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6675528863515079</v>
+        <v>-0.6675989727009668</v>
       </c>
       <c r="E5" t="n">
-        <v>2.509146621197145</v>
+        <v>2.509173267662224</v>
       </c>
       <c r="F5" t="n">
-        <v>53.48880320675254</v>
+        <v>53.48878491601722</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6675528863515033</v>
+        <v>-0.6675989727009657</v>
       </c>
       <c r="H5" t="n">
-        <v>49.88420454965901</v>
+        <v>49.88424339066543</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2315909006819794</v>
+        <v>-0.2315132186691358</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>103.3730077564115</v>
+        <v>103.3730283066826</v>
       </c>
       <c r="L5" t="n">
         <v>-0</v>
@@ -654,25 +654,25 @@
         <v>41060</v>
       </c>
       <c r="B6" t="n">
-        <v>107.78271484375</v>
+        <v>107.7827301025391</v>
       </c>
       <c r="C6" t="n">
-        <v>90.57767486572266</v>
+        <v>90.57769012451172</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.005570618463995</v>
+        <v>-6.005538550223067</v>
       </c>
       <c r="E6" t="n">
-        <v>2.869546561820946</v>
+        <v>2.869537151162915</v>
       </c>
       <c r="F6" t="n">
-        <v>50.27649535719978</v>
+        <v>50.2764953178399</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.633033144810065</v>
+        <v>-6.633044609257581</v>
       </c>
       <c r="H6" t="n">
-        <v>51.31565502620548</v>
+        <v>51.31569028733711</v>
       </c>
       <c r="I6" t="n">
         <v>-0</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>101.5921503834053</v>
+        <v>101.592185605177</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.722748918366294</v>
+        <v>-1.722734383114236</v>
       </c>
     </row>
     <row r="7">
@@ -692,34 +692,34 @@
         <v>41090</v>
       </c>
       <c r="B7" t="n">
-        <v>112.1566467285156</v>
+        <v>112.1566314697266</v>
       </c>
       <c r="C7" t="n">
-        <v>90.20243835449219</v>
+        <v>90.20243072509766</v>
       </c>
       <c r="D7" t="n">
-        <v>4.058101422947469</v>
+        <v>4.058072534464841</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.41427041684029</v>
+        <v>-0.4142956161701794</v>
       </c>
       <c r="F7" t="n">
-        <v>52.31676653069842</v>
+        <v>52.31675196562467</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.844106934296705</v>
+        <v>-2.844145836279818</v>
       </c>
       <c r="H7" t="n">
-        <v>51.10306944822409</v>
+        <v>51.1030916320692</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4142704168402889</v>
+        <v>-0.4142956161701786</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>103.4198359789225</v>
+        <v>103.4198435976939</v>
       </c>
       <c r="L7" t="n">
         <v>-0</v>
@@ -733,22 +733,22 @@
         <v>113.4834136962891</v>
       </c>
       <c r="C8" t="n">
-        <v>91.46628570556641</v>
+        <v>91.46629333496094</v>
       </c>
       <c r="D8" t="n">
-        <v>1.18295884058035</v>
+        <v>1.182972606413046</v>
       </c>
       <c r="E8" t="n">
-        <v>1.401123266875937</v>
+        <v>1.401140301545811</v>
       </c>
       <c r="F8" t="n">
-        <v>52.9356523454791</v>
+        <v>52.93564480994306</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.694792708131182</v>
+        <v>-1.694818695996405</v>
       </c>
       <c r="H8" t="n">
-        <v>51.81908644435093</v>
+        <v>51.81911764426201</v>
       </c>
       <c r="I8" t="n">
         <v>-0</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.75473878983</v>
+        <v>104.7547624542051</v>
       </c>
       <c r="L8" t="n">
         <v>-0</v>
@@ -768,34 +768,34 @@
         <v>41152</v>
       </c>
       <c r="B9" t="n">
-        <v>116.3264617919922</v>
+        <v>116.3264694213867</v>
       </c>
       <c r="C9" t="n">
-        <v>91.35899353027344</v>
+        <v>91.35897827148438</v>
       </c>
       <c r="D9" t="n">
-        <v>2.505254294968484</v>
+        <v>2.505261017884441</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1173024294857106</v>
+        <v>-0.1173274433277416</v>
       </c>
       <c r="F9" t="n">
-        <v>54.2618250494338</v>
+        <v>54.26182088393234</v>
       </c>
       <c r="G9" t="n">
         <v>-0</v>
       </c>
       <c r="H9" t="n">
-        <v>51.75830139701441</v>
+        <v>51.758319598375</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1173024294857088</v>
+        <v>-0.1173274433277364</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>106.0201264464482</v>
+        <v>106.0201404823073</v>
       </c>
       <c r="L9" t="n">
         <v>-0</v>
@@ -806,34 +806,34 @@
         <v>41182</v>
       </c>
       <c r="B10" t="n">
-        <v>119.2754974365234</v>
+        <v>119.2754898071289</v>
       </c>
       <c r="C10" t="n">
-        <v>91.04087829589844</v>
+        <v>91.04087066650391</v>
       </c>
       <c r="D10" t="n">
-        <v>2.535137404767407</v>
+        <v>2.535124121286203</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3482035233560055</v>
+        <v>-0.3481952305061653</v>
       </c>
       <c r="F10" t="n">
-        <v>55.63743687277145</v>
+        <v>55.63742539381002</v>
       </c>
       <c r="G10" t="n">
         <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>51.57807716792078</v>
+        <v>51.57809959814333</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4650975016492631</v>
+        <v>-0.4651141452721568</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>107.2155140406922</v>
+        <v>107.2155249919533</v>
       </c>
       <c r="L10" t="n">
         <v>-0</v>
@@ -844,37 +844,37 @@
         <v>41213</v>
       </c>
       <c r="B11" t="n">
-        <v>117.1047973632812</v>
+        <v>117.1048583984375</v>
       </c>
       <c r="C11" t="n">
-        <v>90.68029022216797</v>
+        <v>90.68028259277344</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.819904439633468</v>
+        <v>-1.819846988011842</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3960727098419436</v>
+        <v>-0.3960727430335709</v>
       </c>
       <c r="F11" t="n">
-        <v>54.62488868902561</v>
+        <v>54.62490938357343</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.819904439633467</v>
+        <v>-1.819846988011844</v>
       </c>
       <c r="H11" t="n">
-        <v>51.37379047999743</v>
+        <v>51.37381280426037</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.8593280872130121</v>
+        <v>-0.8593446979523048</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>105.998679169023</v>
+        <v>105.9987221878338</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.134942906870137</v>
+        <v>-1.134912881516796</v>
       </c>
     </row>
     <row r="12">
@@ -882,25 +882,25 @@
         <v>41243</v>
       </c>
       <c r="B12" t="n">
-        <v>117.7676086425781</v>
+        <v>117.7676315307617</v>
       </c>
       <c r="C12" t="n">
-        <v>91.56819152832031</v>
+        <v>91.56818389892578</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5659983999124485</v>
+        <v>0.5659655298580368</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9791557834419873</v>
+        <v>0.9791558658233557</v>
       </c>
       <c r="F12" t="n">
-        <v>54.93406468495945</v>
+        <v>54.93406754140064</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.264206669729278</v>
+        <v>-1.264181164802116</v>
       </c>
       <c r="H12" t="n">
-        <v>51.8768199206557</v>
+        <v>51.8768425058304</v>
       </c>
       <c r="I12" t="n">
         <v>-0</v>
@@ -909,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>106.8108846056151</v>
+        <v>106.810910047231</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.3773982139595132</v>
+        <v>-0.3773846602464188</v>
       </c>
     </row>
     <row r="13">
@@ -920,37 +920,37 @@
         <v>41274</v>
       </c>
       <c r="B13" t="n">
-        <v>118.81982421875</v>
+        <v>118.8198165893555</v>
       </c>
       <c r="C13" t="n">
-        <v>90.70712280273438</v>
+        <v>90.7071533203125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8934677270770797</v>
+        <v>0.8934416400476763</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.9403579029073961</v>
+        <v>-0.9403163216207266</v>
       </c>
       <c r="F13" t="n">
-        <v>53.406937484423</v>
+        <v>53.40695373199702</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3820342212497834</v>
+        <v>-0.3820342456864202</v>
       </c>
       <c r="H13" t="n">
-        <v>53.406937484423</v>
+        <v>53.40695373199702</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.9403579029073978</v>
+        <v>-0.9403163216207251</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>106.813874968846</v>
+        <v>106.813907463994</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.3746090996623833</v>
+        <v>-0.3745889673994925</v>
       </c>
     </row>
     <row r="14">
@@ -958,34 +958,34 @@
         <v>41305</v>
       </c>
       <c r="B14" t="n">
-        <v>124.9022445678711</v>
+        <v>124.902229309082</v>
       </c>
       <c r="C14" t="n">
-        <v>89.53423309326172</v>
+        <v>89.5341796875</v>
       </c>
       <c r="D14" t="n">
-        <v>5.119028233809897</v>
+        <v>5.119022141523377</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.293051386960431</v>
+        <v>-1.293143473117719</v>
       </c>
       <c r="F14" t="n">
-        <v>56.14085369306381</v>
+        <v>56.14086751865109</v>
       </c>
       <c r="G14" t="n">
         <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>52.71635833854757</v>
+        <v>52.7163251956207</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.293051386960437</v>
+        <v>-1.293143473117726</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>108.8572120316114</v>
+        <v>108.8571927142718</v>
       </c>
       <c r="L14" t="n">
         <v>-0</v>
@@ -999,31 +999,31 @@
         <v>126.4958190917969</v>
       </c>
       <c r="C15" t="n">
-        <v>90.54814147949219</v>
+        <v>90.54813385009766</v>
       </c>
       <c r="D15" t="n">
-        <v>1.275857395068547</v>
+        <v>1.275869767521409</v>
       </c>
       <c r="E15" t="n">
-        <v>1.132425387699865</v>
+        <v>1.132477190427883</v>
       </c>
       <c r="F15" t="n">
-        <v>56.85713092656138</v>
+        <v>56.85715187454581</v>
       </c>
       <c r="G15" t="n">
         <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>53.31333176384412</v>
+        <v>53.31332555409289</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1752688414425188</v>
+        <v>-0.1753108375624038</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1704626904055</v>
+        <v>110.1704774286387</v>
       </c>
       <c r="L15" t="n">
         <v>-0</v>
@@ -1034,25 +1034,25 @@
         <v>41364</v>
       </c>
       <c r="B16" t="n">
-        <v>131.2990264892578</v>
+        <v>131.2990570068359</v>
       </c>
       <c r="C16" t="n">
-        <v>90.80784606933594</v>
+        <v>90.80783081054688</v>
       </c>
       <c r="D16" t="n">
-        <v>3.797127392783861</v>
+        <v>3.7971515181489</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2868138269878973</v>
+        <v>0.2868054253654106</v>
       </c>
       <c r="F16" t="n">
-        <v>59.01606861972483</v>
+        <v>59.01610408012635</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>53.46624177097075</v>
+        <v>53.46623106422475</v>
       </c>
       <c r="I16" t="n">
         <v>-0</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>112.4823103906956</v>
+        <v>112.4823351443511</v>
       </c>
       <c r="L16" t="n">
         <v>-0</v>
@@ -1072,25 +1072,25 @@
         <v>41394</v>
       </c>
       <c r="B17" t="n">
-        <v>133.8216247558594</v>
+        <v>133.8215942382812</v>
       </c>
       <c r="C17" t="n">
         <v>92.19288635253906</v>
       </c>
       <c r="D17" t="n">
-        <v>1.921261972805222</v>
+        <v>1.921215040648749</v>
       </c>
       <c r="E17" t="n">
-        <v>1.525242964298013</v>
+        <v>1.525260023975061</v>
       </c>
       <c r="F17" t="n">
-        <v>60.14992190396023</v>
+        <v>60.14993034811865</v>
       </c>
       <c r="G17" t="n">
         <v>-0</v>
       </c>
       <c r="H17" t="n">
-        <v>54.28173186185705</v>
+        <v>54.28173011297351</v>
       </c>
       <c r="I17" t="n">
         <v>-0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>114.4316537658173</v>
+        <v>114.4316604610922</v>
       </c>
       <c r="L17" t="n">
         <v>-0</v>
@@ -1110,37 +1110,37 @@
         <v>41425</v>
       </c>
       <c r="B18" t="n">
-        <v>136.9810943603516</v>
+        <v>136.9810638427734</v>
       </c>
       <c r="C18" t="n">
-        <v>89.33024597167969</v>
+        <v>89.33034515380859</v>
       </c>
       <c r="D18" t="n">
-        <v>2.360955944344756</v>
+        <v>2.360956482753052</v>
       </c>
       <c r="E18" t="n">
-        <v>-3.105055600399409</v>
+        <v>-3.104948019291109</v>
       </c>
       <c r="F18" t="n">
-        <v>61.57003506067051</v>
+        <v>61.570044028044</v>
       </c>
       <c r="G18" t="n">
         <v>-0</v>
       </c>
       <c r="H18" t="n">
-        <v>52.59625390668667</v>
+        <v>52.59631060899379</v>
       </c>
       <c r="I18" t="n">
-        <v>-3.105055600399411</v>
+        <v>-3.104948019291109</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>114.1662889673572</v>
+        <v>114.1663546370378</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.2318980716674454</v>
+        <v>-0.2318465213082984</v>
       </c>
     </row>
     <row r="19">
@@ -1148,37 +1148,37 @@
         <v>41455</v>
       </c>
       <c r="B19" t="n">
-        <v>135.1530914306641</v>
+        <v>135.1531524658203</v>
       </c>
       <c r="C19" t="n">
-        <v>87.05577087402344</v>
+        <v>87.05580902099609</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.334492864306247</v>
+        <v>-1.334426325562199</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.546142208516167</v>
+        <v>-2.546207706794612</v>
       </c>
       <c r="F19" t="n">
-        <v>60.74838733623501</v>
+        <v>60.74843715187355</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.334492864306244</v>
+        <v>-1.3344263255622</v>
       </c>
       <c r="H19" t="n">
-        <v>51.25707848587019</v>
+        <v>51.25709929477796</v>
       </c>
       <c r="I19" t="n">
-        <v>-5.572138677675912</v>
+        <v>-5.572097300326561</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>112.0054658221052</v>
+        <v>112.0055364466515</v>
       </c>
       <c r="L19" t="n">
-        <v>-2.120207009047722</v>
+        <v>-2.120151018227644</v>
       </c>
     </row>
     <row r="20">
@@ -1186,34 +1186,34 @@
         <v>41486</v>
       </c>
       <c r="B20" t="n">
-        <v>142.1374816894531</v>
+        <v>142.1374359130859</v>
       </c>
       <c r="C20" t="n">
-        <v>86.74878692626953</v>
+        <v>86.74879455566406</v>
       </c>
       <c r="D20" t="n">
-        <v>5.167762116911834</v>
+        <v>5.16768075316032</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3526290614302097</v>
+        <v>-0.3526639621004302</v>
       </c>
       <c r="F20" t="n">
-        <v>63.88771948363183</v>
+        <v>63.88772244641661</v>
       </c>
       <c r="G20" t="n">
         <v>-0</v>
       </c>
       <c r="H20" t="n">
-        <v>51.07633113108892</v>
+        <v>51.07633397754724</v>
       </c>
       <c r="I20" t="n">
-        <v>-5.905118758785439</v>
+        <v>-5.905110483315569</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>114.9640506147207</v>
+        <v>114.9640564239639</v>
       </c>
       <c r="L20" t="n">
         <v>-0</v>
@@ -1224,37 +1224,37 @@
         <v>41517</v>
       </c>
       <c r="B21" t="n">
-        <v>137.8743896484375</v>
+        <v>137.8744049072266</v>
       </c>
       <c r="C21" t="n">
-        <v>85.51475524902344</v>
+        <v>85.5147705078125</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.999273654172219</v>
+        <v>-2.999231679165881</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.422534793823615</v>
+        <v>-1.422525873901026</v>
       </c>
       <c r="F21" t="n">
-        <v>61.97155194490782</v>
+        <v>61.97158163570611</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.999273654172214</v>
+        <v>-2.999231679165887</v>
       </c>
       <c r="H21" t="n">
-        <v>50.34975254934061</v>
+        <v>50.34975991127654</v>
       </c>
       <c r="I21" t="n">
-        <v>-7.243651183648732</v>
+        <v>-7.243634632708982</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>112.3213044942484</v>
+        <v>112.3213415469826</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.298758704430962</v>
+        <v>-2.298731411525204</v>
       </c>
     </row>
     <row r="22">
@@ -1262,34 +1262,34 @@
         <v>41547</v>
       </c>
       <c r="B22" t="n">
-        <v>142.2376098632812</v>
+        <v>142.2376556396484</v>
       </c>
       <c r="C22" t="n">
-        <v>87.09354400634766</v>
+        <v>87.09352874755859</v>
       </c>
       <c r="D22" t="n">
-        <v>3.164634292104163</v>
+        <v>3.164656076200534</v>
       </c>
       <c r="E22" t="n">
-        <v>1.846217945343698</v>
+        <v>1.846181929005897</v>
       </c>
       <c r="F22" t="n">
-        <v>63.93272492910551</v>
+        <v>63.93276905945805</v>
       </c>
       <c r="G22" t="n">
         <v>-0</v>
       </c>
       <c r="H22" t="n">
-        <v>51.27931871634269</v>
+        <v>51.27930808005638</v>
       </c>
       <c r="I22" t="n">
-        <v>-5.531166826355659</v>
+        <v>-5.531183377295367</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>115.2120436454482</v>
+        <v>115.2120771395144</v>
       </c>
       <c r="L22" t="n">
         <v>-0</v>
@@ -1300,34 +1300,34 @@
         <v>41578</v>
       </c>
       <c r="B23" t="n">
-        <v>148.8241424560547</v>
+        <v>148.8242034912109</v>
       </c>
       <c r="C23" t="n">
-        <v>87.77095794677734</v>
+        <v>87.77090454101562</v>
       </c>
       <c r="D23" t="n">
-        <v>4.630654718610927</v>
+        <v>4.630663955998515</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7778004077779954</v>
+        <v>0.7777567440405475</v>
       </c>
       <c r="F23" t="n">
-        <v>66.89322867277168</v>
+        <v>66.89328075236615</v>
       </c>
       <c r="G23" t="n">
         <v>-0</v>
       </c>
       <c r="H23" t="n">
-        <v>51.67816946642418</v>
+        <v>51.67813635694635</v>
       </c>
       <c r="I23" t="n">
-        <v>-4.796387856707936</v>
+        <v>-4.796445784996989</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>118.5713981391959</v>
+        <v>118.5714171093125</v>
       </c>
       <c r="L23" t="n">
         <v>-0</v>
@@ -1341,31 +1341,31 @@
         <v>153.2350006103516</v>
       </c>
       <c r="C24" t="n">
-        <v>87.00177001953125</v>
+        <v>87.00175476074219</v>
       </c>
       <c r="D24" t="n">
-        <v>2.963805523421259</v>
+        <v>2.963763296338495</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.8763581317097091</v>
+        <v>-0.8763152029657051</v>
       </c>
       <c r="F24" t="n">
-        <v>68.87581387897011</v>
+        <v>68.87583925502145</v>
       </c>
       <c r="G24" t="n">
         <v>-0</v>
       </c>
       <c r="H24" t="n">
-        <v>51.22528362598645</v>
+        <v>51.22527299144108</v>
       </c>
       <c r="I24" t="n">
-        <v>-5.630712453407044</v>
+        <v>-5.630729004346754</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>120.1010975049566</v>
+        <v>120.1011122464625</v>
       </c>
       <c r="L24" t="n">
         <v>-0</v>
@@ -1379,31 +1379,31 @@
         <v>157.2078399658203</v>
       </c>
       <c r="C25" t="n">
-        <v>85.18286895751953</v>
+        <v>85.18292999267578</v>
       </c>
       <c r="D25" t="n">
         <v>2.592644852445258</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.090648341526147</v>
+        <v>-2.090561015772885</v>
       </c>
       <c r="F25" t="n">
-        <v>60.40793110275035</v>
+        <v>60.40796128005201</v>
       </c>
       <c r="G25" t="n">
         <v>-0</v>
       </c>
       <c r="H25" t="n">
-        <v>60.40793110275035</v>
+        <v>60.40796128005201</v>
       </c>
       <c r="I25" t="n">
-        <v>-7.603642398409928</v>
+        <v>-7.603576194650946</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>120.8158622055007</v>
+        <v>120.815922560104</v>
       </c>
       <c r="L25" t="n">
         <v>-0</v>
@@ -1414,25 +1414,25 @@
         <v>41670</v>
       </c>
       <c r="B26" t="n">
-        <v>151.6665496826172</v>
+        <v>151.6665344238281</v>
       </c>
       <c r="C26" t="n">
-        <v>87.79231262207031</v>
+        <v>87.79232025146484</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.52481802714667</v>
+        <v>-3.524827733271418</v>
       </c>
       <c r="E26" t="n">
-        <v>3.063343247868433</v>
+        <v>3.063278357545851</v>
       </c>
       <c r="F26" t="n">
-        <v>58.27866145741427</v>
+        <v>58.27868470774887</v>
       </c>
       <c r="G26" t="n">
-        <v>-15.38588341065175</v>
+        <v>-15.38588082830509</v>
       </c>
       <c r="H26" t="n">
-        <v>62.25843338136347</v>
+        <v>62.25842528417851</v>
       </c>
       <c r="I26" t="n">
         <v>-0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>120.5370948387777</v>
+        <v>120.5371099919274</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.2307373896391245</v>
+        <v>-0.2307746878627807</v>
       </c>
     </row>
     <row r="27">
@@ -1452,25 +1452,25 @@
         <v>41698</v>
       </c>
       <c r="B27" t="n">
-        <v>158.5697326660156</v>
+        <v>158.5697631835938</v>
       </c>
       <c r="C27" t="n">
-        <v>88.10613250732422</v>
+        <v>88.10610198974609</v>
       </c>
       <c r="D27" t="n">
-        <v>4.551552730542285</v>
+        <v>4.551583370709023</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3574571347776612</v>
+        <v>0.3574136523359694</v>
       </c>
       <c r="F27" t="n">
-        <v>60.9312454643027</v>
+        <v>60.93128762957471</v>
       </c>
       <c r="G27" t="n">
-        <v>-11.53462727660504</v>
+        <v>-11.53459865081431</v>
       </c>
       <c r="H27" t="n">
-        <v>62.48098059348595</v>
+        <v>62.48094539587355</v>
       </c>
       <c r="I27" t="n">
         <v>-0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>123.4122260577886</v>
+        <v>123.4122330254483</v>
       </c>
       <c r="L27" t="n">
         <v>-0</v>
@@ -1496,28 +1496,28 @@
         <v>87.61179351806641</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8295495026667599</v>
+        <v>0.8295300974939579</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.5610721696548415</v>
+        <v>-0.5610377266914157</v>
       </c>
       <c r="F28" t="n">
-        <v>61.43670030802048</v>
+        <v>61.43673099925265</v>
       </c>
       <c r="G28" t="n">
-        <v>-10.80076321714582</v>
+        <v>-10.80075152075399</v>
       </c>
       <c r="H28" t="n">
-        <v>62.13041720004846</v>
+        <v>62.13040372020924</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.561072169654838</v>
+        <v>-0.5610377266914212</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>123.5671175080689</v>
+        <v>123.5671347194619</v>
       </c>
       <c r="L28" t="n">
         <v>-0</v>
@@ -1531,22 +1531,22 @@
         <v>160.9965972900391</v>
       </c>
       <c r="C29" t="n">
-        <v>88.27615356445312</v>
+        <v>88.27616882324219</v>
       </c>
       <c r="D29" t="n">
         <v>0.6951553759111828</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7582997901415256</v>
+        <v>0.7583172065057431</v>
       </c>
       <c r="F29" t="n">
-        <v>61.86378083299413</v>
+        <v>61.86381173757804</v>
       </c>
       <c r="G29" t="n">
-        <v>-10.18068992737807</v>
+        <v>-10.18067814967814</v>
       </c>
       <c r="H29" t="n">
-        <v>62.60155202329049</v>
+        <v>62.60154926209107</v>
       </c>
       <c r="I29" t="n">
         <v>-0</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>124.4653328562846</v>
+        <v>124.4653609996691</v>
       </c>
       <c r="L29" t="n">
         <v>-0</v>
@@ -1566,25 +1566,25 @@
         <v>41790</v>
       </c>
       <c r="B30" t="n">
-        <v>164.7327575683594</v>
+        <v>164.7327728271484</v>
       </c>
       <c r="C30" t="n">
         <v>89.88752746582031</v>
       </c>
       <c r="D30" t="n">
-        <v>2.320645492643258</v>
+        <v>2.320654970352298</v>
       </c>
       <c r="E30" t="n">
-        <v>1.825378470065164</v>
+        <v>1.825360869256332</v>
       </c>
       <c r="F30" t="n">
-        <v>63.29941987447371</v>
+        <v>63.29945735951554</v>
       </c>
       <c r="G30" t="n">
-        <v>-8.096302156654495</v>
+        <v>-8.096281592821914</v>
       </c>
       <c r="H30" t="n">
-        <v>63.74426727585028</v>
+        <v>63.7442534458695</v>
       </c>
       <c r="I30" t="n">
         <v>-0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>127.043687150324</v>
+        <v>127.043710805385</v>
       </c>
       <c r="L30" t="n">
         <v>-0</v>
@@ -1604,34 +1604,34 @@
         <v>41820</v>
       </c>
       <c r="B31" t="n">
-        <v>168.1336822509766</v>
+        <v>168.1336669921875</v>
       </c>
       <c r="C31" t="n">
         <v>89.69264984130859</v>
       </c>
       <c r="D31" t="n">
-        <v>2.064510260629793</v>
+        <v>2.064491543894276</v>
       </c>
       <c r="E31" t="n">
         <v>-0.2168016297765196</v>
       </c>
       <c r="F31" t="n">
-        <v>64.60624289270136</v>
+        <v>64.6062693040337</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.198940884780423</v>
+        <v>-6.198937097781307</v>
       </c>
       <c r="H31" t="n">
-        <v>63.60606866550713</v>
+        <v>63.60605486550998</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.2168016297765224</v>
+        <v>-0.2168016297765212</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>128.2123115582085</v>
+        <v>128.2123241695437</v>
       </c>
       <c r="L31" t="n">
         <v>-0</v>
@@ -1645,34 +1645,34 @@
         <v>165.8743438720703</v>
       </c>
       <c r="C32" t="n">
-        <v>89.49494171142578</v>
+        <v>89.49488830566406</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.343774994194014</v>
+        <v>-1.343766040755046</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.2204284634611753</v>
+        <v>-0.2204880065361237</v>
       </c>
       <c r="F32" t="n">
-        <v>63.73808035602099</v>
+        <v>63.73811219692735</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.459416061459885</v>
+        <v>-7.4594039269286</v>
       </c>
       <c r="H32" t="n">
-        <v>63.4658627856797</v>
+        <v>63.46581114310074</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.4367522007364171</v>
+        <v>-0.436811614721016</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>127.2039431417007</v>
+        <v>127.2039233400281</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.786483298095747</v>
+        <v>-0.7865085014620781</v>
       </c>
     </row>
     <row r="33">
@@ -1680,25 +1680,25 @@
         <v>41882</v>
       </c>
       <c r="B33" t="n">
-        <v>172.4202880859375</v>
+        <v>172.4203491210938</v>
       </c>
       <c r="C33" t="n">
         <v>91.17765808105469</v>
       </c>
       <c r="D33" t="n">
-        <v>3.946327117902992</v>
+        <v>3.946363913922712</v>
       </c>
       <c r="E33" t="n">
-        <v>1.880236287604697</v>
+        <v>1.880297084279525</v>
       </c>
       <c r="F33" t="n">
-        <v>66.25339350554145</v>
+        <v>66.25345005608246</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.807461902427491</v>
+        <v>-3.807415237771934</v>
       </c>
       <c r="H33" t="n">
-        <v>64.65917096801745</v>
+        <v>64.65915693953882</v>
       </c>
       <c r="I33" t="n">
         <v>-0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>130.9125644735589</v>
+        <v>130.9126069956213</v>
       </c>
       <c r="L33" t="n">
         <v>-0</v>
@@ -1718,37 +1718,37 @@
         <v>41912</v>
       </c>
       <c r="B34" t="n">
-        <v>170.0415802001953</v>
+        <v>170.0415649414062</v>
       </c>
       <c r="C34" t="n">
-        <v>90.22071838378906</v>
+        <v>90.22077178955078</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.379598603011611</v>
+        <v>-1.379642363452616</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.04953309550343</v>
+        <v>-1.049474522205052</v>
       </c>
       <c r="F34" t="n">
-        <v>65.33936261429122</v>
+        <v>65.33938939185983</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.134532814223013</v>
+        <v>-5.134528887651694</v>
       </c>
       <c r="H34" t="n">
-        <v>63.98055156942996</v>
+        <v>63.98057556118578</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.049533095503426</v>
+        <v>-1.049474522205048</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>129.3199141837212</v>
+        <v>129.3199649530456</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.216575579465797</v>
+        <v>-1.216568884484094</v>
       </c>
     </row>
     <row r="35">
@@ -1759,22 +1759,22 @@
         <v>174.0461883544922</v>
       </c>
       <c r="C35" t="n">
-        <v>91.60682678222656</v>
+        <v>91.60676574707031</v>
       </c>
       <c r="D35" t="n">
-        <v>2.355075828854414</v>
+        <v>2.355085013752878</v>
       </c>
       <c r="E35" t="n">
-        <v>1.536352650774897</v>
+        <v>1.536224895916982</v>
       </c>
       <c r="F35" t="n">
-        <v>66.87815414994793</v>
+        <v>66.87818755950515</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.900379126600958</v>
+        <v>-2.900366394258719</v>
       </c>
       <c r="H35" t="n">
-        <v>64.96351846944729</v>
+        <v>64.9634610915077</v>
       </c>
       <c r="I35" t="n">
         <v>-0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>131.8416726193952</v>
+        <v>131.8416486510129</v>
       </c>
       <c r="L35" t="n">
         <v>-0</v>
@@ -1794,25 +1794,25 @@
         <v>41973</v>
       </c>
       <c r="B36" t="n">
-        <v>178.8275909423828</v>
+        <v>178.8276062011719</v>
       </c>
       <c r="C36" t="n">
-        <v>92.78724670410156</v>
+        <v>92.78728485107422</v>
       </c>
       <c r="D36" t="n">
-        <v>2.747203275806309</v>
+        <v>2.747212042898073</v>
       </c>
       <c r="E36" t="n">
-        <v>1.288572002042132</v>
+        <v>1.288681130019764</v>
       </c>
       <c r="F36" t="n">
-        <v>68.7154329915541</v>
+        <v>68.71547318221184</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.2328551611714313</v>
+        <v>-0.2328335662318876</v>
       </c>
       <c r="H36" t="n">
-        <v>65.80062017998605</v>
+        <v>65.80063295600169</v>
       </c>
       <c r="I36" t="n">
         <v>-0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>134.5160531715401</v>
+        <v>134.5161061382135</v>
       </c>
       <c r="L36" t="n">
         <v>-0</v>
@@ -1832,25 +1832,25 @@
         <v>42004</v>
       </c>
       <c r="B37" t="n">
-        <v>178.3739624023438</v>
+        <v>178.3739776611328</v>
       </c>
       <c r="C37" t="n">
-        <v>92.90740203857422</v>
+        <v>92.90738677978516</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2536680931888302</v>
+        <v>-0.2536680715441442</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1294955273927201</v>
+        <v>0.1294379169556548</v>
       </c>
       <c r="F37" t="n">
-        <v>67.21347645153689</v>
+        <v>67.21348394559084</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.4859325751130228</v>
+        <v>-0.4859110133586557</v>
       </c>
       <c r="H37" t="n">
-        <v>67.21347645153689</v>
+        <v>67.21348394559084</v>
       </c>
       <c r="I37" t="n">
         <v>-0</v>
@@ -1859,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>134.4269529030738</v>
+        <v>134.4269678911817</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.06623764700613775</v>
+        <v>-0.06626585439535866</v>
       </c>
     </row>
     <row r="38">
@@ -1870,25 +1870,25 @@
         <v>42035</v>
       </c>
       <c r="B38" t="n">
-        <v>173.0888824462891</v>
+        <v>173.0888977050781</v>
       </c>
       <c r="C38" t="n">
-        <v>96.90452575683594</v>
+        <v>96.90457916259766</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.962921204908575</v>
+        <v>-2.962920951449011</v>
       </c>
       <c r="E38" t="n">
-        <v>4.302266160237855</v>
+        <v>4.302340773276603</v>
       </c>
       <c r="F38" t="n">
-        <v>65.22199410519808</v>
+        <v>65.22200154756811</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.304938799260637</v>
+        <v>-5.304962882447851</v>
       </c>
       <c r="H38" t="n">
-        <v>70.1051791040308</v>
+        <v>70.10523707052171</v>
       </c>
       <c r="I38" t="n">
         <v>-0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.3271732092289</v>
+        <v>135.3272386180898</v>
       </c>
       <c r="L38" t="n">
         <v>-0</v>
@@ -1908,34 +1908,34 @@
         <v>42063</v>
       </c>
       <c r="B39" t="n">
-        <v>182.8173217773438</v>
+        <v>182.8172760009766</v>
       </c>
       <c r="C39" t="n">
-        <v>94.50931549072266</v>
+        <v>94.50930023193359</v>
       </c>
       <c r="D39" t="n">
-        <v>5.620487690232512</v>
+        <v>5.620451932436699</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.471721777085645</v>
+        <v>-2.471791272778745</v>
       </c>
       <c r="F39" t="n">
-        <v>68.88778825520491</v>
+        <v>68.8877727939223</v>
       </c>
       <c r="G39" t="n">
         <v>-0</v>
       </c>
       <c r="H39" t="n">
-        <v>68.37237412525157</v>
+        <v>68.3723819388517</v>
       </c>
       <c r="I39" t="n">
-        <v>-2.471721777085651</v>
+        <v>-2.471791272778748</v>
       </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.2601623804565</v>
+        <v>137.260154732774</v>
       </c>
       <c r="L39" t="n">
         <v>-0</v>
@@ -1946,37 +1946,37 @@
         <v>42094</v>
       </c>
       <c r="B40" t="n">
-        <v>179.9460296630859</v>
+        <v>179.9459991455078</v>
       </c>
       <c r="C40" t="n">
-        <v>95.31834411621094</v>
+        <v>95.31837463378906</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.570579902573355</v>
+        <v>-1.570571949367305</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8560305630059384</v>
+        <v>0.856079137047816</v>
       </c>
       <c r="F40" t="n">
-        <v>67.80585049754137</v>
+        <v>67.80584075787706</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.570579902573359</v>
+        <v>-1.570571949367313</v>
       </c>
       <c r="H40" t="n">
-        <v>68.95766254441648</v>
+        <v>68.95770363613286</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.636849907924048</v>
+        <v>-1.636872625128558</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>136.7635130419579</v>
+        <v>136.7635443940099</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.3618306505583315</v>
+        <v>-0.3618022577133919</v>
       </c>
     </row>
     <row r="41">
@@ -1984,37 +1984,37 @@
         <v>42124</v>
       </c>
       <c r="B41" t="n">
-        <v>181.7155609130859</v>
+        <v>181.7156066894531</v>
       </c>
       <c r="C41" t="n">
-        <v>94.71498107910156</v>
+        <v>94.71501922607422</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9833677649421446</v>
+        <v>0.9834103299592556</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.6329978166361827</v>
+        <v>-0.6329896098553056</v>
       </c>
       <c r="F41" t="n">
-        <v>68.47263137407906</v>
+        <v>68.47265040020575</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.602656714115778</v>
+        <v>-0.6026067861975771</v>
       </c>
       <c r="H41" t="n">
-        <v>68.52116204610698</v>
+        <v>68.52120853692132</v>
       </c>
       <c r="I41" t="n">
-        <v>-2.259486500381454</v>
+        <v>-2.259501001340242</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>136.993793420186</v>
+        <v>136.9938589371271</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.1940613763315652</v>
+        <v>-0.1940080835296781</v>
       </c>
     </row>
     <row r="42">
@@ -2022,34 +2022,34 @@
         <v>42155</v>
       </c>
       <c r="B42" t="n">
-        <v>184.0518035888672</v>
+        <v>184.0517730712891</v>
       </c>
       <c r="C42" t="n">
-        <v>94.32068634033203</v>
+        <v>94.32066345214844</v>
       </c>
       <c r="D42" t="n">
-        <v>1.285659116941917</v>
+        <v>1.285616807712264</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.4162960645478386</v>
+        <v>-0.416360337724786</v>
       </c>
       <c r="F42" t="n">
-        <v>69.35295600194993</v>
+        <v>69.35294630243685</v>
       </c>
       <c r="G42" t="n">
         <v>-0</v>
       </c>
       <c r="H42" t="n">
-        <v>68.23591114512659</v>
+        <v>68.23591340164388</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.66637641154921</v>
+        <v>-2.666453673064962</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.5888671470765</v>
+        <v>137.5888597040807</v>
       </c>
       <c r="L42" t="n">
         <v>-0</v>
@@ -2060,37 +2060,37 @@
         <v>42185</v>
       </c>
       <c r="B43" t="n">
-        <v>180.3132629394531</v>
+        <v>180.3132934570312</v>
       </c>
       <c r="C43" t="n">
-        <v>92.78240203857422</v>
+        <v>92.78239440917969</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.031243691458284</v>
+        <v>-2.031210866308675</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.630908723678393</v>
+        <v>-1.630892941872863</v>
       </c>
       <c r="F43" t="n">
-        <v>67.94422845832048</v>
+        <v>67.94424172103653</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.031243691458293</v>
+        <v>-2.031210866308671</v>
       </c>
       <c r="H43" t="n">
-        <v>67.12304571757929</v>
+        <v>67.123058706154</v>
       </c>
       <c r="I43" t="n">
-        <v>-4.253798969725542</v>
+        <v>-4.253859610185495</v>
       </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>135.0672741758998</v>
+        <v>135.0673004271905</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.832701310405659</v>
+        <v>-1.832676920437778</v>
       </c>
     </row>
     <row r="44">
@@ -2098,34 +2098,34 @@
         <v>42216</v>
       </c>
       <c r="B44" t="n">
-        <v>184.3864288330078</v>
+        <v>184.3863983154297</v>
       </c>
       <c r="C44" t="n">
-        <v>94.19116973876953</v>
+        <v>94.19121551513672</v>
       </c>
       <c r="D44" t="n">
-        <v>2.258938597834814</v>
+        <v>2.258904366010639</v>
       </c>
       <c r="E44" t="n">
-        <v>1.518356573275192</v>
+        <v>1.518414258360257</v>
       </c>
       <c r="F44" t="n">
-        <v>69.47904685996654</v>
+        <v>69.47903716372585</v>
       </c>
       <c r="G44" t="n">
         <v>-0</v>
       </c>
       <c r="H44" t="n">
-        <v>68.14221289441467</v>
+        <v>68.14226480019576</v>
       </c>
       <c r="I44" t="n">
-        <v>-2.800030232721085</v>
+        <v>-2.80003656267693</v>
       </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>137.6212597543812</v>
+        <v>137.6213019639216</v>
       </c>
       <c r="L44" t="n">
         <v>-0</v>
@@ -2136,37 +2136,37 @@
         <v>42247</v>
       </c>
       <c r="B45" t="n">
-        <v>173.1480407714844</v>
+        <v>173.1480102539062</v>
       </c>
       <c r="C45" t="n">
-        <v>94.26565551757812</v>
+        <v>94.26564788818359</v>
       </c>
       <c r="D45" t="n">
-        <v>-6.095019103440436</v>
+        <v>-6.095020112219951</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07907936488651401</v>
+        <v>0.07902262715244746</v>
       </c>
       <c r="F45" t="n">
-        <v>65.24428568096324</v>
+        <v>65.24427587481999</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.095019103440446</v>
+        <v>-6.095020112219942</v>
       </c>
       <c r="H45" t="n">
-        <v>68.19609932359118</v>
+        <v>68.19611260804206</v>
       </c>
       <c r="I45" t="n">
-        <v>-2.723165113959243</v>
+        <v>-2.723226597977534</v>
       </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>133.4403850045544</v>
+        <v>133.440388482862</v>
       </c>
       <c r="L45" t="n">
-        <v>-3.037957040422808</v>
+        <v>-3.037984251998744</v>
       </c>
     </row>
     <row r="46">
@@ -2174,37 +2174,37 @@
         <v>42277</v>
       </c>
       <c r="B46" t="n">
-        <v>168.7299957275391</v>
+        <v>168.7300109863281</v>
       </c>
       <c r="C46" t="n">
-        <v>95.75429534912109</v>
+        <v>95.75428009033203</v>
       </c>
       <c r="D46" t="n">
-        <v>-2.55159978955587</v>
+        <v>-2.55157380156984</v>
       </c>
       <c r="E46" t="n">
-        <v>1.579196392757676</v>
+        <v>1.579188427065414</v>
       </c>
       <c r="F46" t="n">
-        <v>63.57951262483056</v>
+        <v>63.57952002457413</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.491098398379538</v>
+        <v>-8.491074977405969</v>
       </c>
       <c r="H46" t="n">
-        <v>69.27304966411077</v>
+        <v>69.27305772605675</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.186972846450056</v>
+        <v>-1.187043050190157</v>
       </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>132.8525622889413</v>
+        <v>132.8525777506309</v>
       </c>
       <c r="L46" t="n">
-        <v>-3.465087787999319</v>
+        <v>-3.465106161065743</v>
       </c>
     </row>
     <row r="47">
@@ -2212,34 +2212,34 @@
         <v>42308</v>
       </c>
       <c r="B47" t="n">
-        <v>183.0820922851562</v>
+        <v>183.0821228027344</v>
       </c>
       <c r="C47" t="n">
         <v>95.14441680908203</v>
       </c>
       <c r="D47" t="n">
-        <v>8.505954436692221</v>
+        <v>8.505962710788406</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.6369202946096997</v>
+        <v>-0.6369044607454355</v>
       </c>
       <c r="F47" t="n">
-        <v>68.98755699976962</v>
+        <v>68.98757028956265</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.7073929226281818</v>
+        <v>-0.7073599379407967</v>
       </c>
       <c r="H47" t="n">
-        <v>68.83183555210499</v>
+        <v>68.83185453130473</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.816333070109213</v>
+        <v>-1.816387180797969</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>137.8193925518746</v>
+        <v>137.8194248208674</v>
       </c>
       <c r="L47" t="n">
         <v>-0</v>
@@ -2250,37 +2250,37 @@
         <v>42338</v>
       </c>
       <c r="B48" t="n">
-        <v>183.7513580322266</v>
+        <v>183.7513122558594</v>
       </c>
       <c r="C48" t="n">
-        <v>94.73748779296875</v>
+        <v>94.73752593994141</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3655550025219778</v>
+        <v>0.3655132696085417</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.4276961589136929</v>
+        <v>-0.4276560651552463</v>
       </c>
       <c r="F48" t="n">
-        <v>69.23974446549998</v>
+        <v>69.23972901335152</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.3444238303223581</v>
+        <v>-0.34443216276933</v>
       </c>
       <c r="H48" t="n">
-        <v>68.53744443533884</v>
+        <v>68.53749093064276</v>
       </c>
       <c r="I48" t="n">
-        <v>-2.23626084224898</v>
+        <v>-2.236275356007839</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>137.7771889008388</v>
+        <v>137.7772199439943</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.03062243292060062</v>
+        <v>-0.03062331520244145</v>
       </c>
     </row>
     <row r="49">
@@ -2288,37 +2288,37 @@
         <v>42369</v>
       </c>
       <c r="B49" t="n">
-        <v>180.5756530761719</v>
+        <v>180.5756225585938</v>
       </c>
       <c r="C49" t="n">
-        <v>94.30830383300781</v>
+        <v>94.30825805664062</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.728262033033645</v>
+        <v>-1.728254159536957</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.4530244256622518</v>
+        <v>-0.4531128283558061</v>
       </c>
       <c r="F49" t="n">
-        <v>68.13502666072765</v>
+        <v>68.13501464181448</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.066733317063814</v>
+        <v>-2.066733659126451</v>
       </c>
       <c r="H49" t="n">
-        <v>68.13502666072765</v>
+        <v>68.13501464181448</v>
       </c>
       <c r="I49" t="n">
-        <v>-2.67915446007433</v>
+        <v>-2.679255333848215</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>136.2700533214553</v>
+        <v>136.270029283629</v>
       </c>
       <c r="L49" t="n">
-        <v>-1.124180858536404</v>
+        <v>-1.124221450823974</v>
       </c>
     </row>
     <row r="50">
@@ -2326,25 +2326,25 @@
         <v>42400</v>
       </c>
       <c r="B50" t="n">
-        <v>171.5853576660156</v>
+        <v>171.5853729248047</v>
       </c>
       <c r="C50" t="n">
-        <v>97.45221710205078</v>
+        <v>97.45222473144531</v>
       </c>
       <c r="D50" t="n">
-        <v>-4.978686360538253</v>
+        <v>-4.978661851696997</v>
       </c>
       <c r="E50" t="n">
-        <v>3.333654769796213</v>
+        <v>3.333713016856321</v>
       </c>
       <c r="F50" t="n">
-        <v>64.7427973816209</v>
+        <v>64.7428026601943</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.816802607973949</v>
+        <v>-6.816782006306038</v>
       </c>
       <c r="H50" t="n">
-        <v>70.40641322690492</v>
+        <v>70.4064404939656</v>
       </c>
       <c r="I50" t="n">
         <v>-0</v>
@@ -2353,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>135.1492106085258</v>
+        <v>135.1492431541599</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.937450088777409</v>
+        <v>-1.937449434416134</v>
       </c>
     </row>
     <row r="51">
@@ -2364,25 +2364,25 @@
         <v>42429</v>
       </c>
       <c r="B51" t="n">
-        <v>171.4436492919922</v>
+        <v>171.4436645507812</v>
       </c>
       <c r="C51" t="n">
-        <v>98.90034484863281</v>
+        <v>98.90031433105469</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.08258768460841504</v>
+        <v>-0.08258767726404548</v>
       </c>
       <c r="E51" t="n">
-        <v>1.485987481501394</v>
+        <v>1.485948220884592</v>
       </c>
       <c r="F51" t="n">
-        <v>64.68932780431271</v>
+        <v>64.6893330832816</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.893760453144103</v>
+        <v>-6.893739861646929</v>
       </c>
       <c r="H51" t="n">
-        <v>71.45264371363086</v>
+        <v>71.45264374387385</v>
       </c>
       <c r="I51" t="n">
         <v>-0</v>
@@ -2391,10 +2391,10 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>136.1419715179436</v>
+        <v>136.1419768271554</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.217115387661911</v>
+        <v>-1.21713466435679</v>
       </c>
     </row>
     <row r="52">
@@ -2402,34 +2402,34 @@
         <v>42460</v>
       </c>
       <c r="B52" t="n">
-        <v>182.9759979248047</v>
+        <v>182.9759826660156</v>
       </c>
       <c r="C52" t="n">
-        <v>98.8349609375</v>
+        <v>98.83490753173828</v>
       </c>
       <c r="D52" t="n">
-        <v>6.726611735364618</v>
+        <v>6.726593336330922</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.06611090308419332</v>
+        <v>-0.06613406616430284</v>
       </c>
       <c r="F52" t="n">
-        <v>69.0407277199261</v>
+        <v>69.04072145177852</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.6308652174286024</v>
+        <v>-0.6308603714735479</v>
       </c>
       <c r="H52" t="n">
-        <v>71.40540572559425</v>
+        <v>71.40538920518414</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.06611090308419464</v>
+        <v>-0.06613406616429826</v>
       </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>140.4461334455203</v>
+        <v>140.4461106569627</v>
       </c>
       <c r="L52" t="n">
         <v>-0</v>
@@ -2440,34 +2440,34 @@
         <v>42490</v>
       </c>
       <c r="B53" t="n">
-        <v>183.6971282958984</v>
+        <v>183.6971588134766</v>
       </c>
       <c r="C53" t="n">
-        <v>98.68060302734375</v>
+        <v>98.6806640625</v>
       </c>
       <c r="D53" t="n">
-        <v>0.394112003362368</v>
+        <v>0.394137053919974</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1561774383194825</v>
+        <v>-0.1560617327321823</v>
       </c>
       <c r="F53" t="n">
-        <v>69.31282551507906</v>
+        <v>69.31283651731366</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.2392395296131578</v>
+        <v>-0.2392097720360528</v>
       </c>
       <c r="H53" t="n">
-        <v>71.29388659211038</v>
+        <v>71.29395271752637</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.2221850910887915</v>
+        <v>-0.2220925889268991</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>140.6067121071894</v>
+        <v>140.60678923484</v>
       </c>
       <c r="L53" t="n">
         <v>-0</v>
@@ -2481,31 +2481,31 @@
         <v>186.8220977783203</v>
       </c>
       <c r="C54" t="n">
-        <v>98.58271789550781</v>
+        <v>98.58271026611328</v>
       </c>
       <c r="D54" t="n">
-        <v>1.701153148887657</v>
+        <v>1.701136253292179</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.09919389305800275</v>
+        <v>-0.09926341428415641</v>
       </c>
       <c r="F54" t="n">
-        <v>70.49194282891183</v>
+        <v>70.49194230749482</v>
       </c>
       <c r="G54" t="n">
         <v>-0</v>
       </c>
       <c r="H54" t="n">
-        <v>71.22316741048731</v>
+        <v>71.22318390588082</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.3211585901051549</v>
+        <v>-0.3211355465244164</v>
       </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>141.7151102393991</v>
+        <v>141.7151262133756</v>
       </c>
       <c r="L54" t="n">
         <v>-0</v>
@@ -2516,25 +2516,25 @@
         <v>42551</v>
       </c>
       <c r="B55" t="n">
-        <v>187.4714813232422</v>
+        <v>187.4714660644531</v>
       </c>
       <c r="C55" t="n">
-        <v>101.626594543457</v>
+        <v>101.6265563964844</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3475946114749329</v>
+        <v>0.3475864439244969</v>
       </c>
       <c r="E55" t="n">
-        <v>3.087637177112068</v>
+        <v>3.087606459747927</v>
       </c>
       <c r="F55" t="n">
-        <v>70.73696902370912</v>
+        <v>70.73696274301476</v>
       </c>
       <c r="G55" t="n">
         <v>-0</v>
       </c>
       <c r="H55" t="n">
-        <v>73.42228040617027</v>
+        <v>73.42227553299693</v>
       </c>
       <c r="I55" t="n">
         <v>-0</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>144.1592494298794</v>
+        <v>144.1592382760117</v>
       </c>
       <c r="L55" t="n">
         <v>-0</v>
@@ -2557,22 +2557,22 @@
         <v>194.3088073730469</v>
       </c>
       <c r="C56" t="n">
-        <v>101.877067565918</v>
+        <v>101.8770523071289</v>
       </c>
       <c r="D56" t="n">
-        <v>3.647128620067619</v>
+        <v>3.647137056176364</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2464640516453009</v>
+        <v>0.2464866660120357</v>
       </c>
       <c r="F56" t="n">
-        <v>73.31683726594119</v>
+        <v>73.31683672362891</v>
       </c>
       <c r="G56" t="n">
         <v>-0</v>
       </c>
       <c r="H56" t="n">
-        <v>73.60323993326969</v>
+        <v>73.60325165206839</v>
       </c>
       <c r="I56" t="n">
         <v>-0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>146.9200771992109</v>
+        <v>146.9200883756973</v>
       </c>
       <c r="L56" t="n">
         <v>-0</v>
@@ -2592,37 +2592,37 @@
         <v>42613</v>
       </c>
       <c r="B57" t="n">
-        <v>194.5415191650391</v>
+        <v>194.5414733886719</v>
       </c>
       <c r="C57" t="n">
-        <v>100.8466339111328</v>
+        <v>100.8467178344727</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1197638929178346</v>
+        <v>0.1197403343525805</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.011448090728007</v>
+        <v>-1.011350887489459</v>
       </c>
       <c r="F57" t="n">
-        <v>73.40464436441512</v>
+        <v>73.40462654905852</v>
       </c>
       <c r="G57" t="n">
         <v>-0</v>
       </c>
       <c r="H57" t="n">
-        <v>72.85878136825067</v>
+        <v>72.85886451326409</v>
       </c>
       <c r="I57" t="n">
-        <v>-1.011448090728015</v>
+        <v>-1.011350887489467</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>146.2634257326658</v>
+        <v>146.2634910623226</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.4469446784013986</v>
+        <v>-0.4469077854729321</v>
       </c>
     </row>
     <row r="58">
@@ -2630,37 +2630,37 @@
         <v>42643</v>
       </c>
       <c r="B58" t="n">
-        <v>194.5527954101562</v>
+        <v>194.5527801513672</v>
       </c>
       <c r="C58" t="n">
-        <v>101.0860748291016</v>
+        <v>101.086067199707</v>
       </c>
       <c r="D58" t="n">
-        <v>0.005796318012518675</v>
+        <v>0.0058120063030076</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2374307487345018</v>
+        <v>0.2373397670980548</v>
       </c>
       <c r="F58" t="n">
-        <v>73.40889913103844</v>
+        <v>73.40889283058026</v>
       </c>
       <c r="G58" t="n">
         <v>-0</v>
       </c>
       <c r="H58" t="n">
-        <v>73.03177051837214</v>
+        <v>73.03178757261016</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.776418830768396</v>
+        <v>-0.776411458232333</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>146.4406696494106</v>
+        <v>146.4406804031904</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.3263049944836774</v>
+        <v>-0.3263052573729544</v>
       </c>
     </row>
     <row r="59">
@@ -2671,34 +2671,34 @@
         <v>191.1798248291016</v>
       </c>
       <c r="C59" t="n">
-        <v>99.57515716552734</v>
+        <v>99.57516479492188</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.733704506246636</v>
+        <v>-1.733696799213758</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.494684273900837</v>
+        <v>-1.49466929186215</v>
       </c>
       <c r="F59" t="n">
-        <v>72.13620573881758</v>
+        <v>72.13620520523823</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.733704506246633</v>
+        <v>-1.733696799213761</v>
       </c>
       <c r="H59" t="n">
-        <v>71.94017612948268</v>
+        <v>71.94020387046436</v>
       </c>
       <c r="I59" t="n">
-        <v>-2.25949809450614</v>
+        <v>-2.259475966449779</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>144.0763818683002</v>
+        <v>144.0764090757026</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.935538957725179</v>
+        <v>-1.935527899168546</v>
       </c>
     </row>
     <row r="60">
@@ -2706,37 +2706,37 @@
         <v>42704</v>
       </c>
       <c r="B60" t="n">
-        <v>198.2225494384766</v>
+        <v>198.2226104736328</v>
       </c>
       <c r="C60" t="n">
-        <v>95.36587524414062</v>
+        <v>95.36589050292969</v>
       </c>
       <c r="D60" t="n">
-        <v>3.683822085134025</v>
+        <v>3.683854010655629</v>
       </c>
       <c r="E60" t="n">
-        <v>-4.227241052092423</v>
+        <v>-4.227233066258352</v>
       </c>
       <c r="F60" t="n">
-        <v>74.79357521720186</v>
+        <v>74.79359769382617</v>
       </c>
       <c r="G60" t="n">
         <v>-0</v>
       </c>
       <c r="H60" t="n">
-        <v>68.89909147118959</v>
+        <v>68.89912378451842</v>
       </c>
       <c r="I60" t="n">
-        <v>-6.391224715576356</v>
+        <v>-6.3911957175302</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>143.6926666883915</v>
+        <v>143.6927214783446</v>
       </c>
       <c r="L60" t="n">
-        <v>-2.196711690018605</v>
+        <v>-2.196681837748311</v>
       </c>
     </row>
     <row r="61">
@@ -2747,34 +2747,34 @@
         <v>202.2409057617188</v>
       </c>
       <c r="C61" t="n">
-        <v>95.25291442871094</v>
+        <v>95.25289154052734</v>
       </c>
       <c r="D61" t="n">
-        <v>2.027194350302408</v>
+        <v>2.027162934886495</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.1184499331029043</v>
+        <v>-0.1184899147970264</v>
       </c>
       <c r="F61" t="n">
-        <v>72.56363344591381</v>
+        <v>72.5636355276969</v>
       </c>
       <c r="G61" t="n">
         <v>-0</v>
       </c>
       <c r="H61" t="n">
-        <v>72.56363344591381</v>
+        <v>72.5636355276969</v>
       </c>
       <c r="I61" t="n">
-        <v>-6.502104247279202</v>
+        <v>-6.50211270996701</v>
       </c>
       <c r="J61" t="b">
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>145.1272668918276</v>
+        <v>145.1272710553938</v>
       </c>
       <c r="L61" t="n">
-        <v>-1.220262296045739</v>
+        <v>-1.220266976506976</v>
       </c>
     </row>
     <row r="62">
@@ -2782,37 +2782,37 @@
         <v>42766</v>
       </c>
       <c r="B62" t="n">
-        <v>205.8599548339844</v>
+        <v>205.8599700927734</v>
       </c>
       <c r="C62" t="n">
-        <v>95.46188354492188</v>
+        <v>95.46189880371094</v>
       </c>
       <c r="D62" t="n">
-        <v>1.789474319566975</v>
+        <v>1.789481864424936</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2193834356295055</v>
+        <v>0.2194235364442187</v>
       </c>
       <c r="F62" t="n">
-        <v>73.86214103177315</v>
+        <v>73.86214862563244</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.245339833968108</v>
+        <v>-1.245359358172197</v>
       </c>
       <c r="H62" t="n">
-        <v>72.72282603798506</v>
+        <v>72.72285722294427</v>
       </c>
       <c r="I62" t="n">
-        <v>-1.196161875595199</v>
+        <v>-1.19613523772816</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>146.5849670697582</v>
+        <v>146.5850058485767</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.2280900853314328</v>
+        <v>-0.2280712806704369</v>
       </c>
     </row>
     <row r="63">
@@ -2820,34 +2820,34 @@
         <v>42794</v>
       </c>
       <c r="B63" t="n">
-        <v>213.9485015869141</v>
+        <v>213.9484710693359</v>
       </c>
       <c r="C63" t="n">
-        <v>96.15267181396484</v>
+        <v>96.15265655517578</v>
       </c>
       <c r="D63" t="n">
-        <v>3.929150163980499</v>
+        <v>3.929127636090346</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7236273195027731</v>
+        <v>0.7235952355035158</v>
       </c>
       <c r="F63" t="n">
-        <v>76.76429546724258</v>
+        <v>76.7642867198923</v>
       </c>
       <c r="G63" t="n">
         <v>-0</v>
       </c>
       <c r="H63" t="n">
-        <v>73.2490682747104</v>
+        <v>73.24907635293152</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.4811903102097066</v>
+        <v>-0.4811951798150165</v>
       </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>150.013363741953</v>
+        <v>150.0133630728238</v>
       </c>
       <c r="L63" t="n">
         <v>-0</v>
@@ -2858,34 +2858,34 @@
         <v>42825</v>
       </c>
       <c r="B64" t="n">
-        <v>214.2159118652344</v>
+        <v>214.2159271240234</v>
       </c>
       <c r="C64" t="n">
-        <v>96.23011779785156</v>
+        <v>96.23012542724609</v>
       </c>
       <c r="D64" t="n">
-        <v>0.124988151979033</v>
+        <v>0.1250095657850281</v>
       </c>
       <c r="E64" t="n">
-        <v>0.08054480694676958</v>
+        <v>0.08056862373413409</v>
       </c>
       <c r="F64" t="n">
-        <v>76.86024174152681</v>
+        <v>76.86024942139881</v>
       </c>
       <c r="G64" t="n">
         <v>-0</v>
       </c>
       <c r="H64" t="n">
-        <v>73.30806659534257</v>
+        <v>73.30809212564705</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.4010330770693454</v>
+        <v>-0.4010142484147291</v>
       </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>150.1683083368694</v>
+        <v>150.1683415470459</v>
       </c>
       <c r="L64" t="n">
         <v>-0</v>
@@ -2896,25 +2896,25 @@
         <v>42855</v>
       </c>
       <c r="B65" t="n">
-        <v>216.3423004150391</v>
+        <v>216.3422698974609</v>
       </c>
       <c r="C65" t="n">
-        <v>97.29711151123047</v>
+        <v>97.29714202880859</v>
       </c>
       <c r="D65" t="n">
-        <v>0.992638003073476</v>
+        <v>0.9926165631028994</v>
       </c>
       <c r="E65" t="n">
-        <v>1.108793938733732</v>
+        <v>1.108817635667747</v>
       </c>
       <c r="F65" t="n">
-        <v>77.62318571030734</v>
+        <v>77.62317698759782</v>
       </c>
       <c r="G65" t="n">
         <v>-0</v>
       </c>
       <c r="H65" t="n">
-        <v>74.12090199435461</v>
+        <v>74.12094517950779</v>
       </c>
       <c r="I65" t="n">
         <v>-0</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>151.744087704662</v>
+        <v>151.7441221671056</v>
       </c>
       <c r="L65" t="n">
         <v>-0</v>
@@ -2934,25 +2934,25 @@
         <v>42886</v>
       </c>
       <c r="B66" t="n">
-        <v>219.3954925537109</v>
+        <v>219.3954620361328</v>
       </c>
       <c r="C66" t="n">
-        <v>98.10151672363281</v>
+        <v>98.10153961181641</v>
       </c>
       <c r="D66" t="n">
-        <v>1.411278392073356</v>
+        <v>1.411278591150489</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8267513802909798</v>
+        <v>0.8267432796429386</v>
       </c>
       <c r="F66" t="n">
-        <v>78.71866495747588</v>
+        <v>78.71865626619464</v>
       </c>
       <c r="G66" t="n">
         <v>-0</v>
       </c>
       <c r="H66" t="n">
-        <v>74.73369757467707</v>
+        <v>74.7337351125872</v>
       </c>
       <c r="I66" t="n">
         <v>-0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>153.452362532153</v>
+        <v>153.4523913787818</v>
       </c>
       <c r="L66" t="n">
         <v>-0</v>
@@ -2972,34 +2972,34 @@
         <v>42916</v>
       </c>
       <c r="B67" t="n">
-        <v>220.7941131591797</v>
+        <v>220.7941284179688</v>
       </c>
       <c r="C67" t="n">
-        <v>97.60166931152344</v>
+        <v>97.60163879394531</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6374883044264701</v>
+        <v>0.6375092578740693</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5095205750156984</v>
+        <v>-0.5095748954085488</v>
       </c>
       <c r="F67" t="n">
-        <v>79.22048723998044</v>
+        <v>79.2204949875657</v>
       </c>
       <c r="G67" t="n">
         <v>-0</v>
       </c>
       <c r="H67" t="n">
-        <v>74.35291400906408</v>
+        <v>74.35291076005232</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.5095205750156973</v>
+        <v>-0.5095748954085552</v>
       </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>153.5734012490445</v>
+        <v>153.573405747618</v>
       </c>
       <c r="L67" t="n">
         <v>-0</v>
@@ -3010,34 +3010,34 @@
         <v>42947</v>
       </c>
       <c r="B68" t="n">
-        <v>225.3323516845703</v>
+        <v>225.3323822021484</v>
       </c>
       <c r="C68" t="n">
         <v>97.96748352050781</v>
       </c>
       <c r="D68" t="n">
-        <v>2.055416451306757</v>
+        <v>2.055423220126884</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3748032298676929</v>
+        <v>0.3748346145445947</v>
       </c>
       <c r="F68" t="n">
-        <v>80.84879816751638</v>
+        <v>80.84881143663958</v>
       </c>
       <c r="G68" t="n">
         <v>-0</v>
       </c>
       <c r="H68" t="n">
-        <v>74.6315911322708</v>
+        <v>74.63161120650246</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.1366270447200048</v>
+        <v>-0.1366503439589782</v>
       </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>155.4803892997872</v>
+        <v>155.480422643142</v>
       </c>
       <c r="L68" t="n">
         <v>-0</v>
@@ -3051,22 +3051,22 @@
         <v>225.9898376464844</v>
       </c>
       <c r="C69" t="n">
-        <v>99.39543914794922</v>
+        <v>99.39543151855469</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2917849820492924</v>
+        <v>0.2917713991707371</v>
       </c>
       <c r="E69" t="n">
-        <v>1.457581205648184</v>
+        <v>1.457573417967772</v>
       </c>
       <c r="F69" t="n">
-        <v>81.08470281873653</v>
+        <v>81.08470514498117</v>
       </c>
       <c r="G69" t="n">
         <v>-0</v>
       </c>
       <c r="H69" t="n">
-        <v>75.71940717809098</v>
+        <v>75.7194217328495</v>
       </c>
       <c r="I69" t="n">
         <v>-0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>156.8041099968275</v>
+        <v>156.8041268778307</v>
       </c>
       <c r="L69" t="n">
         <v>-0</v>
@@ -3086,34 +3086,34 @@
         <v>43008</v>
       </c>
       <c r="B70" t="n">
-        <v>230.5433959960938</v>
+        <v>230.5433502197266</v>
       </c>
       <c r="C70" t="n">
-        <v>97.96263122558594</v>
+        <v>97.96261596679688</v>
       </c>
       <c r="D70" t="n">
-        <v>2.014939431361729</v>
+        <v>2.014919175421181</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.441522804915185</v>
+        <v>-1.441530591363593</v>
       </c>
       <c r="F70" t="n">
-        <v>82.71851046863372</v>
+        <v>82.71849641728112</v>
       </c>
       <c r="G70" t="n">
         <v>-0</v>
       </c>
       <c r="H70" t="n">
-        <v>74.62789465587221</v>
+        <v>74.62790310496686</v>
       </c>
       <c r="I70" t="n">
-        <v>-1.441522804915181</v>
+        <v>-1.441530591363589</v>
       </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>157.3464051245059</v>
+        <v>157.346399522248</v>
       </c>
       <c r="L70" t="n">
         <v>-0</v>
@@ -3124,34 +3124,34 @@
         <v>43039</v>
       </c>
       <c r="B71" t="n">
-        <v>235.9758758544922</v>
+        <v>235.9758911132812</v>
       </c>
       <c r="C71" t="n">
-        <v>97.77748870849609</v>
+        <v>97.77745819091797</v>
       </c>
       <c r="D71" t="n">
-        <v>2.356380600245211</v>
+        <v>2.35640754260622</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1889930014879915</v>
+        <v>-0.1890086070605368</v>
       </c>
       <c r="F71" t="n">
-        <v>84.66767340212841</v>
+        <v>84.66768130598838</v>
       </c>
       <c r="G71" t="n">
         <v>-0</v>
       </c>
       <c r="H71" t="n">
-        <v>74.48685315781478</v>
+        <v>74.48684994482967</v>
       </c>
       <c r="I71" t="n">
-        <v>-1.627791429187035</v>
+        <v>-1.627814581533045</v>
       </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>159.1545265599432</v>
+        <v>159.1545312508181</v>
       </c>
       <c r="L71" t="n">
         <v>-0</v>
@@ -3162,34 +3162,34 @@
         <v>43069</v>
       </c>
       <c r="B72" t="n">
-        <v>243.1887512207031</v>
+        <v>243.188720703125</v>
       </c>
       <c r="C72" t="n">
-        <v>97.50445556640625</v>
+        <v>97.50440979003906</v>
       </c>
       <c r="D72" t="n">
-        <v>3.056615571440258</v>
+        <v>3.056595975044418</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2792392663139798</v>
+        <v>-0.2792549590988069</v>
       </c>
       <c r="F72" t="n">
-        <v>87.25563869131405</v>
+        <v>87.25563024495065</v>
       </c>
       <c r="G72" t="n">
         <v>-0</v>
       </c>
       <c r="H72" t="n">
-        <v>74.27885661555652</v>
+        <v>74.27884172248224</v>
       </c>
       <c r="I72" t="n">
-        <v>-1.902485262657036</v>
+        <v>-1.902523787687997</v>
       </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>161.5344953068706</v>
+        <v>161.5344719674329</v>
       </c>
       <c r="L72" t="n">
         <v>-0</v>
@@ -3200,34 +3200,34 @@
         <v>43100</v>
       </c>
       <c r="B73" t="n">
-        <v>246.1380462646484</v>
+        <v>246.1380920410156</v>
       </c>
       <c r="C73" t="n">
-        <v>97.68459320068359</v>
+        <v>97.6845703125</v>
       </c>
       <c r="D73" t="n">
-        <v>1.212759648273654</v>
+        <v>1.212791172782679</v>
       </c>
       <c r="E73" t="n">
-        <v>0.184748105336241</v>
+        <v>0.1847716660701604</v>
       </c>
       <c r="F73" t="n">
-        <v>81.36496263201246</v>
+        <v>81.36497340109389</v>
       </c>
       <c r="G73" t="n">
         <v>-0</v>
       </c>
       <c r="H73" t="n">
-        <v>81.36496263201246</v>
+        <v>81.36497340109389</v>
       </c>
       <c r="I73" t="n">
-        <v>-1.72125196279786</v>
+        <v>-1.721267446517737</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>162.7299252640249</v>
+        <v>162.7299468021878</v>
       </c>
       <c r="L73" t="n">
         <v>-0</v>
@@ -3241,31 +3241,31 @@
         <v>260.01025390625</v>
       </c>
       <c r="C74" t="n">
-        <v>95.58411407470703</v>
+        <v>95.58416748046875</v>
       </c>
       <c r="D74" t="n">
-        <v>5.635946109154588</v>
+        <v>5.63592646315092</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.150266543733592</v>
+        <v>-2.150188945205889</v>
       </c>
       <c r="F74" t="n">
-        <v>85.95064807768645</v>
+        <v>85.95064346874184</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.495594592166456</v>
+        <v>-1.495590339036402</v>
       </c>
       <c r="H74" t="n">
-        <v>79.61539906221496</v>
+        <v>79.61547273775386</v>
       </c>
       <c r="I74" t="n">
-        <v>-2.15026654373359</v>
+        <v>-2.150188945205885</v>
       </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>165.5660471399014</v>
+        <v>165.5661162064957</v>
       </c>
       <c r="L74" t="n">
         <v>-0</v>
@@ -3276,37 +3276,37 @@
         <v>43159</v>
       </c>
       <c r="B75" t="n">
-        <v>250.55615234375</v>
+        <v>250.5561370849609</v>
       </c>
       <c r="C75" t="n">
-        <v>94.69253540039062</v>
+        <v>94.6925048828125</v>
       </c>
       <c r="D75" t="n">
-        <v>-3.636049509766182</v>
+        <v>-3.636055378299763</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.9327686749490249</v>
+        <v>-0.9328559542441495</v>
       </c>
       <c r="F75" t="n">
-        <v>82.82543995961687</v>
+        <v>82.82543047421341</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.077263542096086</v>
+        <v>-5.077265224376298</v>
       </c>
       <c r="H75" t="n">
-        <v>78.87277155932696</v>
+        <v>78.8727750598201</v>
       </c>
       <c r="I75" t="n">
-        <v>-3.062978205934756</v>
+        <v>-3.062986733847179</v>
       </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>161.6982115189438</v>
+        <v>161.6982055340335</v>
       </c>
       <c r="L75" t="n">
-        <v>-2.336128504468855</v>
+        <v>-2.336172860175158</v>
       </c>
     </row>
     <row r="76">
@@ -3314,37 +3314,37 @@
         <v>43190</v>
       </c>
       <c r="B76" t="n">
-        <v>243.6882934570312</v>
+        <v>243.6883087158203</v>
       </c>
       <c r="C76" t="n">
-        <v>95.78696441650391</v>
+        <v>95.78694915771484</v>
       </c>
       <c r="D76" t="n">
-        <v>-2.741045798506836</v>
+        <v>-2.741033785499258</v>
       </c>
       <c r="E76" t="n">
-        <v>1.155771161354679</v>
+        <v>1.155787647878559</v>
       </c>
       <c r="F76" t="n">
-        <v>80.55515671750899</v>
+        <v>80.55515744193002</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.679139221603178</v>
+        <v>-7.679129454695993</v>
       </c>
       <c r="H76" t="n">
-        <v>79.78436030717081</v>
+        <v>79.78437685150054</v>
       </c>
       <c r="I76" t="n">
-        <v>-1.942608063362857</v>
+        <v>-1.942600708294587</v>
       </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>160.3395170246798</v>
+        <v>160.3395342934306</v>
       </c>
       <c r="L76" t="n">
-        <v>-3.156764448694738</v>
+        <v>-3.156794417129702</v>
       </c>
     </row>
     <row r="77">
@@ -3352,37 +3352,37 @@
         <v>43220</v>
       </c>
       <c r="B77" t="n">
-        <v>244.9477081298828</v>
+        <v>244.9476928710938</v>
       </c>
       <c r="C77" t="n">
-        <v>94.56422424316406</v>
+        <v>94.56423187255859</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5168137767248338</v>
+        <v>0.5168012211624218</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.276520433430883</v>
+        <v>-1.276496741892286</v>
       </c>
       <c r="F77" t="n">
-        <v>80.97147686528736</v>
+        <v>80.97146747929922</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.202012294309472</v>
+        <v>-7.20201406833009</v>
       </c>
       <c r="H77" t="n">
-        <v>78.76589664516766</v>
+        <v>78.76593188045207</v>
       </c>
       <c r="I77" t="n">
-        <v>-3.19433070792344</v>
+        <v>-3.194300215437515</v>
       </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>159.737373510455</v>
+        <v>159.7373993597513</v>
       </c>
       <c r="L77" t="n">
-        <v>-3.520452248594912</v>
+        <v>-3.520476882766749</v>
       </c>
     </row>
     <row r="78">
@@ -3390,37 +3390,37 @@
         <v>43251</v>
       </c>
       <c r="B78" t="n">
-        <v>250.9021759033203</v>
+        <v>250.9022064208984</v>
       </c>
       <c r="C78" t="n">
-        <v>95.49675750732422</v>
+        <v>95.49671936035156</v>
       </c>
       <c r="D78" t="n">
-        <v>2.430913854593064</v>
+        <v>2.430932694245991</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9861374865850259</v>
+        <v>0.9860889993265731</v>
       </c>
       <c r="F78" t="n">
-        <v>82.93982371467425</v>
+        <v>82.93982935526427</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.94617315438827</v>
+        <v>-4.946157488715331</v>
       </c>
       <c r="H78" t="n">
-        <v>79.54263667863047</v>
+        <v>79.54263406994227</v>
       </c>
       <c r="I78" t="n">
-        <v>-2.239693713894745</v>
+        <v>-2.239709859140843</v>
       </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>162.4824603933047</v>
+        <v>162.4824634252065</v>
       </c>
       <c r="L78" t="n">
-        <v>-1.862451148568565</v>
+        <v>-1.862490255822159</v>
       </c>
     </row>
     <row r="79">
@@ -3428,37 +3428,37 @@
         <v>43281</v>
       </c>
       <c r="B79" t="n">
-        <v>252.3450622558594</v>
+        <v>252.3450775146484</v>
       </c>
       <c r="C79" t="n">
-        <v>95.68528747558594</v>
+        <v>95.68527221679688</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5750792504466196</v>
+        <v>0.5750730989306341</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1974202823035842</v>
+        <v>0.1974443286725025</v>
       </c>
       <c r="F79" t="n">
-        <v>83.41679343121434</v>
+        <v>83.41679400218537</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.399538319443697</v>
+        <v>-4.399528410933035</v>
       </c>
       <c r="H79" t="n">
-        <v>79.69966997651314</v>
+        <v>79.6996864897901</v>
       </c>
       <c r="I79" t="n">
-        <v>-2.046695041243872</v>
+        <v>-2.046687710563925</v>
       </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>163.1164634077275</v>
+        <v>163.1164804919755</v>
       </c>
       <c r="L79" t="n">
-        <v>-1.479520574713033</v>
+        <v>-1.479551354254775</v>
       </c>
     </row>
     <row r="80">
@@ -3466,34 +3466,34 @@
         <v>43312</v>
       </c>
       <c r="B80" t="n">
-        <v>261.693603515625</v>
+        <v>261.6935729980469</v>
       </c>
       <c r="C80" t="n">
-        <v>95.18030548095703</v>
+        <v>95.1802978515625</v>
       </c>
       <c r="D80" t="n">
-        <v>3.704665816003527</v>
+        <v>3.704647451605525</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5277530202934866</v>
+        <v>-0.5277451310273129</v>
       </c>
       <c r="F80" t="n">
-        <v>86.50710686226682</v>
+        <v>86.50709213539837</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.8578606956225707</v>
+        <v>-0.8578679764857948</v>
       </c>
       <c r="H80" t="n">
-        <v>79.27905256104815</v>
+        <v>79.2790752748962</v>
       </c>
       <c r="I80" t="n">
-        <v>-2.563646566640996</v>
+        <v>-2.563631546851397</v>
       </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>165.786159423315</v>
+        <v>165.7861674102946</v>
       </c>
       <c r="L80" t="n">
         <v>-0</v>
@@ -3510,28 +3510,28 @@
         <v>96.14540863037109</v>
       </c>
       <c r="D81" t="n">
-        <v>3.191992794083753</v>
+        <v>3.192004827889816</v>
       </c>
       <c r="E81" t="n">
-        <v>1.013973578396588</v>
+        <v>1.013981675402742</v>
       </c>
       <c r="F81" t="n">
-        <v>89.26840747968072</v>
+        <v>89.26840269282738</v>
       </c>
       <c r="G81" t="n">
         <v>-0</v>
       </c>
       <c r="H81" t="n">
-        <v>80.08292120722032</v>
+        <v>80.0829505706124</v>
       </c>
       <c r="I81" t="n">
-        <v>-1.575667687073613</v>
+        <v>-1.575644625558569</v>
       </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>169.351328686901</v>
+        <v>169.3513532634398</v>
       </c>
       <c r="L81" t="n">
         <v>-0</v>
@@ -3542,37 +3542,37 @@
         <v>43373</v>
       </c>
       <c r="B82" t="n">
-        <v>271.65234375</v>
+        <v>271.6523742675781</v>
       </c>
       <c r="C82" t="n">
-        <v>94.98678588867188</v>
+        <v>94.98683166503906</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5945262092046599</v>
+        <v>0.5945375100506967</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.205073396851963</v>
+        <v>-1.205025785252167</v>
       </c>
       <c r="F82" t="n">
-        <v>89.79913155868704</v>
+        <v>89.79913683145935</v>
       </c>
       <c r="G82" t="n">
         <v>-0</v>
       </c>
       <c r="H82" t="n">
-        <v>79.11786322833019</v>
+        <v>79.11793036664577</v>
       </c>
       <c r="I82" t="n">
-        <v>-2.761753131805858</v>
+        <v>-2.76168348678882</v>
       </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>168.9169947870172</v>
+        <v>168.9170671981051</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.2564691421387066</v>
+        <v>-0.2564408591758219</v>
       </c>
     </row>
     <row r="83">
@@ -3580,37 +3580,37 @@
         <v>43404</v>
       </c>
       <c r="B83" t="n">
-        <v>252.8799591064453</v>
+        <v>252.8800048828125</v>
       </c>
       <c r="C83" t="n">
-        <v>94.69894409179688</v>
+        <v>94.69895935058594</v>
       </c>
       <c r="D83" t="n">
-        <v>-6.910444572063323</v>
+        <v>-6.910438178712475</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3030335158538344</v>
+        <v>-0.3030654980347935</v>
       </c>
       <c r="F83" t="n">
-        <v>83.59361234612975</v>
+        <v>83.59362299570392</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.910444572063323</v>
+        <v>-6.910438178712478</v>
       </c>
       <c r="H83" t="n">
-        <v>78.87810958572096</v>
+        <v>78.87815121694527</v>
       </c>
       <c r="I83" t="n">
-        <v>-3.056417610045169</v>
+        <v>-3.056379275010233</v>
       </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>162.4717219318507</v>
+        <v>162.4717742126492</v>
       </c>
       <c r="L83" t="n">
-        <v>-4.062328183896</v>
+        <v>-4.062311235322003</v>
       </c>
     </row>
     <row r="84">
@@ -3618,37 +3618,37 @@
         <v>43434</v>
       </c>
       <c r="B84" t="n">
-        <v>257.57080078125</v>
+        <v>257.5707702636719</v>
       </c>
       <c r="C84" t="n">
-        <v>95.95853424072266</v>
+        <v>95.95854949951172</v>
       </c>
       <c r="D84" t="n">
-        <v>1.85496774492524</v>
+        <v>1.854937239119847</v>
       </c>
       <c r="E84" t="n">
-        <v>1.330099465211343</v>
+        <v>1.33009925089318</v>
       </c>
       <c r="F84" t="n">
-        <v>85.14424689196829</v>
+        <v>85.14423223818069</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.183663344980798</v>
+        <v>-5.183685230755921</v>
       </c>
       <c r="H84" t="n">
-        <v>79.92726689948945</v>
+        <v>79.92730891540025</v>
       </c>
       <c r="I84" t="n">
-        <v>-1.766971539119665</v>
+        <v>-1.76693290195842</v>
       </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>165.0715137914577</v>
+        <v>165.0715411535809</v>
       </c>
       <c r="L84" t="n">
-        <v>-2.527181173379446</v>
+        <v>-2.527179161775713</v>
       </c>
     </row>
     <row r="85">
@@ -3656,25 +3656,25 @@
         <v>43465</v>
       </c>
       <c r="B85" t="n">
-        <v>234.8920440673828</v>
+        <v>234.8920593261719</v>
       </c>
       <c r="C85" t="n">
-        <v>98.64944458007812</v>
+        <v>98.64945220947266</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.804863224045267</v>
+        <v>-8.804846494920248</v>
       </c>
       <c r="E85" t="n">
-        <v>2.804242854111361</v>
+        <v>2.804234457477528</v>
       </c>
       <c r="F85" t="n">
-        <v>79.90801698999599</v>
+        <v>79.90803567163545</v>
       </c>
       <c r="G85" t="n">
-        <v>-13.53211210150554</v>
+        <v>-13.53211619832826</v>
       </c>
       <c r="H85" t="n">
-        <v>79.90801698999599</v>
+        <v>79.90803567163545</v>
       </c>
       <c r="I85" t="n">
         <v>-0</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>159.816033979992</v>
+        <v>159.8160713432709</v>
       </c>
       <c r="L85" t="n">
-        <v>-5.630481190105127</v>
+        <v>-5.630472822579673</v>
       </c>
     </row>
     <row r="86">
@@ -3694,37 +3694,37 @@
         <v>43496</v>
       </c>
       <c r="B86" t="n">
-        <v>253.6988067626953</v>
+        <v>253.6988983154297</v>
       </c>
       <c r="C86" t="n">
-        <v>99.29326629638672</v>
+        <v>99.29325866699219</v>
       </c>
       <c r="D86" t="n">
-        <v>8.006555849936525</v>
+        <v>8.006587810251432</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6526359261820103</v>
+        <v>0.6526204080205877</v>
       </c>
       <c r="F86" t="n">
-        <v>86.30589699887678</v>
+        <v>86.30594271513198</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.890053833680233</v>
+        <v>-3.890008567547391</v>
       </c>
       <c r="H86" t="n">
-        <v>80.42952541677232</v>
+        <v>80.4295318200769</v>
       </c>
       <c r="I86" t="n">
-        <v>-1.149680630311138</v>
+        <v>-1.149685843815948</v>
       </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>166.7354224156491</v>
+        <v>166.7354745352089</v>
       </c>
       <c r="L86" t="n">
-        <v>-1.544662384130597</v>
+        <v>-1.544645896133862</v>
       </c>
     </row>
     <row r="87">
@@ -3732,37 +3732,37 @@
         <v>43524</v>
       </c>
       <c r="B87" t="n">
-        <v>261.9227294921875</v>
+        <v>261.9226989746094</v>
       </c>
       <c r="C87" t="n">
-        <v>98.77145385742188</v>
+        <v>98.77141571044922</v>
       </c>
       <c r="D87" t="n">
-        <v>3.241608754267689</v>
+        <v>3.241559468246025</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.5255265119461949</v>
+        <v>-0.5255572871196823</v>
       </c>
       <c r="F87" t="n">
-        <v>89.10359651144162</v>
+        <v>89.10360117287333</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.7745454050308455</v>
+        <v>-0.7745460403382822</v>
       </c>
       <c r="H87" t="n">
-        <v>80.00684693727467</v>
+        <v>80.00682855460025</v>
       </c>
       <c r="I87" t="n">
-        <v>-1.669165265742345</v>
+        <v>-1.66920087320447</v>
       </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>169.1104434487163</v>
+        <v>169.1104297274736</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.1422399458288852</v>
+        <v>-0.142262539580317</v>
       </c>
     </row>
     <row r="88">
@@ -3770,25 +3770,25 @@
         <v>43555</v>
       </c>
       <c r="B88" t="n">
-        <v>266.6636657714844</v>
+        <v>266.6636962890625</v>
       </c>
       <c r="C88" t="n">
         <v>101.3939743041992</v>
       </c>
       <c r="D88" t="n">
-        <v>1.810051494381004</v>
+        <v>1.810075008013223</v>
       </c>
       <c r="E88" t="n">
-        <v>2.655140067658612</v>
+        <v>2.655179714582712</v>
       </c>
       <c r="F88" t="n">
-        <v>90.71641749164419</v>
+        <v>90.71644318894329</v>
       </c>
       <c r="G88" t="n">
         <v>-0</v>
       </c>
       <c r="H88" t="n">
-        <v>82.13114078717655</v>
+        <v>82.13115363666296</v>
       </c>
       <c r="I88" t="n">
         <v>-0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>172.8475582788207</v>
+        <v>172.8475968256062</v>
       </c>
       <c r="L88" t="n">
         <v>-0</v>
@@ -3808,34 +3808,34 @@
         <v>43585</v>
       </c>
       <c r="B89" t="n">
-        <v>277.5574951171875</v>
+        <v>277.5575256347656</v>
       </c>
       <c r="C89" t="n">
-        <v>100.8681793212891</v>
+        <v>100.8682174682617</v>
       </c>
       <c r="D89" t="n">
-        <v>4.085231977212267</v>
+        <v>4.085231509689358</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.5185663019112718</v>
+        <v>-0.5185286793869426</v>
       </c>
       <c r="F89" t="n">
-        <v>94.42239358759423</v>
+        <v>94.42241991056744</v>
       </c>
       <c r="G89" t="n">
         <v>-0</v>
       </c>
       <c r="H89" t="n">
-        <v>81.70523636767895</v>
+        <v>81.70528005034551</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.518566301911268</v>
+        <v>-0.5185286793869444</v>
       </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>176.1276299552732</v>
+        <v>176.1276999609129</v>
       </c>
       <c r="L89" t="n">
         <v>-0</v>
@@ -3846,25 +3846,25 @@
         <v>43616</v>
       </c>
       <c r="B90" t="n">
-        <v>259.8572998046875</v>
+        <v>259.8573608398438</v>
       </c>
       <c r="C90" t="n">
         <v>103.9432601928711</v>
       </c>
       <c r="D90" t="n">
-        <v>-6.377127486694889</v>
+        <v>-6.377115790480604</v>
       </c>
       <c r="E90" t="n">
-        <v>3.04861344010896</v>
+        <v>3.048574468540544</v>
       </c>
       <c r="F90" t="n">
-        <v>88.40095717252453</v>
+        <v>88.40099286069675</v>
       </c>
       <c r="G90" t="n">
-        <v>-6.377127486694886</v>
+        <v>-6.3771157904806</v>
       </c>
       <c r="H90" t="n">
-        <v>84.1961131848568</v>
+        <v>84.1961263574099</v>
       </c>
       <c r="I90" t="n">
         <v>-0</v>
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>172.5970703573813</v>
+        <v>172.5971192181066</v>
       </c>
       <c r="L90" t="n">
-        <v>-2.00454613440743</v>
+        <v>-2.004557343103799</v>
       </c>
     </row>
     <row r="91">
@@ -3884,25 +3884,25 @@
         <v>43646</v>
       </c>
       <c r="B91" t="n">
-        <v>277.9398803710938</v>
+        <v>277.9398498535156</v>
       </c>
       <c r="C91" t="n">
-        <v>105.2083969116211</v>
+        <v>105.2083892822266</v>
       </c>
       <c r="D91" t="n">
-        <v>6.95865791724819</v>
+        <v>6.958621050883584</v>
       </c>
       <c r="E91" t="n">
-        <v>1.217141656325271</v>
+        <v>1.217134316364499</v>
       </c>
       <c r="F91" t="n">
-        <v>94.55247737773358</v>
+        <v>94.55248295909128</v>
       </c>
       <c r="G91" t="n">
         <v>-0</v>
       </c>
       <c r="H91" t="n">
-        <v>85.22089915143647</v>
+        <v>85.22090630435555</v>
       </c>
       <c r="I91" t="n">
         <v>-0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>179.77337652917</v>
+        <v>179.7733892634468</v>
       </c>
       <c r="L91" t="n">
         <v>-0</v>
@@ -3925,22 +3925,22 @@
         <v>282.1421813964844</v>
       </c>
       <c r="C92" t="n">
-        <v>105.2486724853516</v>
+        <v>105.2486419677734</v>
       </c>
       <c r="D92" t="n">
-        <v>1.511946043791879</v>
+        <v>1.511957189724145</v>
       </c>
       <c r="E92" t="n">
-        <v>0.03828171031281524</v>
+        <v>0.03825995799526805</v>
       </c>
       <c r="F92" t="n">
-        <v>95.98205981875344</v>
+        <v>95.98207602325395</v>
       </c>
       <c r="G92" t="n">
         <v>-0</v>
       </c>
       <c r="H92" t="n">
-        <v>85.25352316917559</v>
+        <v>85.25351178731079</v>
       </c>
       <c r="I92" t="n">
         <v>-0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>181.235582987929</v>
+        <v>181.2355878105647</v>
       </c>
       <c r="L92" t="n">
         <v>-0</v>
@@ -3963,22 +3963,22 @@
         <v>277.4181518554688</v>
       </c>
       <c r="C93" t="n">
-        <v>109.4076995849609</v>
+        <v>109.4076919555664</v>
       </c>
       <c r="D93" t="n">
         <v>-1.674343594294792</v>
       </c>
       <c r="E93" t="n">
-        <v>3.951619532482198</v>
+        <v>3.951642425055191</v>
       </c>
       <c r="F93" t="n">
-        <v>94.37499034850595</v>
+        <v>94.37500628168745</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.674343594294794</v>
+        <v>-1.674343594294787</v>
       </c>
       <c r="H93" t="n">
-        <v>88.62241804285797</v>
+        <v>88.62242572794759</v>
       </c>
       <c r="I93" t="n">
         <v>-0</v>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>182.9974083913639</v>
+        <v>182.997432009635</v>
       </c>
       <c r="L93" t="n">
         <v>-0</v>
@@ -3998,34 +3998,34 @@
         <v>43738</v>
       </c>
       <c r="B94" t="n">
-        <v>282.8161010742188</v>
+        <v>282.8161315917969</v>
       </c>
       <c r="C94" t="n">
         <v>108.1100311279297</v>
       </c>
       <c r="D94" t="n">
-        <v>1.945780830362631</v>
+        <v>1.945791830932686</v>
       </c>
       <c r="E94" t="n">
-        <v>-1.186085131077586</v>
+        <v>-1.186078240425492</v>
       </c>
       <c r="F94" t="n">
-        <v>96.21132081936376</v>
+        <v>96.21134744435874</v>
       </c>
       <c r="G94" t="n">
         <v>-0</v>
       </c>
       <c r="H94" t="n">
-        <v>87.57128071965022</v>
+        <v>87.57129442025116</v>
       </c>
       <c r="I94" t="n">
-        <v>-1.186085131077582</v>
+        <v>-1.186078240425485</v>
       </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>183.782601539014</v>
+        <v>183.7826418646099</v>
       </c>
       <c r="L94" t="n">
         <v>-0</v>
@@ -4036,34 +4036,34 @@
         <v>43769</v>
       </c>
       <c r="B95" t="n">
-        <v>289.0676879882812</v>
+        <v>289.0677185058594</v>
       </c>
       <c r="C95" t="n">
-        <v>108.3131484985352</v>
+        <v>108.3131561279297</v>
       </c>
       <c r="D95" t="n">
-        <v>2.210477723975801</v>
+        <v>2.210477485451823</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1878802258091339</v>
+        <v>0.1878872828735334</v>
       </c>
       <c r="F95" t="n">
-        <v>98.33805063401869</v>
+        <v>98.33807761806611</v>
       </c>
       <c r="G95" t="n">
         <v>-0</v>
       </c>
       <c r="H95" t="n">
-        <v>87.73580983961024</v>
+        <v>87.73582974591456</v>
       </c>
       <c r="I95" t="n">
-        <v>-1.000433324691013</v>
+        <v>-1.000419447730639</v>
       </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>186.0738604736289</v>
+        <v>186.0739073639807</v>
       </c>
       <c r="L95" t="n">
         <v>-0</v>
@@ -4074,34 +4074,34 @@
         <v>43799</v>
       </c>
       <c r="B96" t="n">
-        <v>299.5314636230469</v>
+        <v>299.5313415527344</v>
       </c>
       <c r="C96" t="n">
-        <v>107.5688323974609</v>
+        <v>107.5688247680664</v>
       </c>
       <c r="D96" t="n">
-        <v>3.619835792643089</v>
+        <v>3.619782624279066</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.6871890545073422</v>
+        <v>-0.6872030937628115</v>
       </c>
       <c r="F96" t="n">
-        <v>101.8977265886564</v>
+        <v>101.8977022647349</v>
       </c>
       <c r="G96" t="n">
         <v>-0</v>
       </c>
       <c r="H96" t="n">
-        <v>87.13289895750907</v>
+        <v>87.13290640956215</v>
       </c>
       <c r="I96" t="n">
-        <v>-1.680747510893427</v>
+        <v>-1.680747628098048</v>
       </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>189.0306255461655</v>
+        <v>189.0306086742971</v>
       </c>
       <c r="L96" t="n">
         <v>-0</v>
@@ -4112,34 +4112,34 @@
         <v>43830</v>
       </c>
       <c r="B97" t="n">
-        <v>308.234375</v>
+        <v>308.2344360351562</v>
       </c>
       <c r="C97" t="n">
-        <v>106.5705184936523</v>
+        <v>106.5705490112305</v>
       </c>
       <c r="D97" t="n">
-        <v>2.905508246674726</v>
+        <v>2.905570561433102</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.9280698521667352</v>
+        <v>-0.9280344551391706</v>
       </c>
       <c r="F97" t="n">
-        <v>95.59130911441468</v>
+        <v>95.59134746041653</v>
       </c>
       <c r="G97" t="n">
         <v>-0</v>
       </c>
       <c r="H97" t="n">
-        <v>95.59130911441468</v>
+        <v>95.59134746041653</v>
       </c>
       <c r="I97" t="n">
-        <v>-2.59321885212052</v>
+        <v>-2.593184166144531</v>
       </c>
       <c r="J97" t="b">
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>191.1826182288294</v>
+        <v>191.1826949208331</v>
       </c>
       <c r="L97" t="n">
         <v>-0</v>
@@ -4150,25 +4150,25 @@
         <v>43861</v>
       </c>
       <c r="B98" t="n">
-        <v>308.1099853515625</v>
+        <v>308.1099243164062</v>
       </c>
       <c r="C98" t="n">
-        <v>110.2640762329102</v>
+        <v>110.2640533447266</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.04035554062958857</v>
+        <v>-0.04039513571280073</v>
       </c>
       <c r="E98" t="n">
-        <v>3.465834446022531</v>
+        <v>3.465783340486372</v>
       </c>
       <c r="F98" t="n">
-        <v>95.55273272482665</v>
+        <v>95.5527332058802</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.226825736204478</v>
+        <v>-6.226802879588204</v>
       </c>
       <c r="H98" t="n">
-        <v>98.90434563310595</v>
+        <v>98.90433645564609</v>
       </c>
       <c r="I98" t="n">
         <v>-0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>194.4570783579326</v>
+        <v>194.4570696615263</v>
       </c>
       <c r="L98" t="n">
         <v>-0</v>
@@ -4188,25 +4188,25 @@
         <v>43890</v>
       </c>
       <c r="B99" t="n">
-        <v>283.7182006835938</v>
+        <v>283.7182312011719</v>
       </c>
       <c r="C99" t="n">
-        <v>113.5297546386719</v>
+        <v>113.5297393798828</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.916583631697948</v>
+        <v>-7.916555485627885</v>
       </c>
       <c r="E99" t="n">
-        <v>2.961688445893884</v>
+        <v>2.961695979873413</v>
       </c>
       <c r="F99" t="n">
-        <v>87.98822072629294</v>
+        <v>87.98824806360271</v>
       </c>
       <c r="G99" t="n">
-        <v>-13.65045750089571</v>
+        <v>-13.65041006027282</v>
       </c>
       <c r="H99" t="n">
-        <v>101.8335842102086</v>
+        <v>101.8335822123734</v>
       </c>
       <c r="I99" t="n">
         <v>-0</v>
@@ -4215,10 +4215,10 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>189.8218049365015</v>
+        <v>189.8218302759761</v>
       </c>
       <c r="L99" t="n">
-        <v>-2.383700022942352</v>
+        <v>-2.38368262651407</v>
       </c>
     </row>
     <row r="100">
@@ -4226,25 +4226,25 @@
         <v>43921</v>
       </c>
       <c r="B100" t="n">
-        <v>248.2899322509766</v>
+        <v>248.2899627685547</v>
       </c>
       <c r="C100" t="n">
-        <v>117.7560882568359</v>
+        <v>117.7560653686523</v>
       </c>
       <c r="D100" t="n">
-        <v>-12.48713277726136</v>
+        <v>-12.48713143410816</v>
       </c>
       <c r="E100" t="n">
-        <v>3.722666037300182</v>
+        <v>3.722659817466667</v>
       </c>
       <c r="F100" t="n">
-        <v>77.00101477585095</v>
+        <v>77.00103988133152</v>
       </c>
       <c r="G100" t="n">
-        <v>-24.43303952531658</v>
+        <v>-24.43299684885998</v>
       </c>
       <c r="H100" t="n">
-        <v>105.6245084641675</v>
+        <v>105.6245000580803</v>
       </c>
       <c r="I100" t="n">
         <v>-0</v>
@@ -4253,10 +4253,10 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>182.6255232400185</v>
+        <v>182.6255399394119</v>
       </c>
       <c r="L100" t="n">
-        <v>-6.084404444324754</v>
+        <v>-6.084391656579275</v>
       </c>
     </row>
     <row r="101">
@@ -4267,22 +4267,22 @@
         <v>279.8186950683594</v>
       </c>
       <c r="C101" t="n">
-        <v>118.0802154541016</v>
+        <v>118.0802307128906</v>
       </c>
       <c r="D101" t="n">
-        <v>12.69836538741043</v>
+        <v>12.69835153553687</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2752530268827158</v>
+        <v>0.2752854752945622</v>
       </c>
       <c r="F101" t="n">
-        <v>86.77888498410239</v>
+        <v>86.77890261148194</v>
       </c>
       <c r="G101" t="n">
-        <v>-14.83727077208126</v>
+        <v>-14.837233143858</v>
       </c>
       <c r="H101" t="n">
-        <v>105.9152431208451</v>
+        <v>105.9152689650927</v>
       </c>
       <c r="I101" t="n">
         <v>-0</v>
@@ -4291,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>192.6941281049475</v>
+        <v>192.6941715765747</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.9066012242249381</v>
+        <v>-0.9065744372370517</v>
       </c>
     </row>
     <row r="102">
@@ -4302,25 +4302,25 @@
         <v>43982</v>
       </c>
       <c r="B102" t="n">
-        <v>293.1507263183594</v>
+        <v>293.1506958007812</v>
       </c>
       <c r="C102" t="n">
         <v>118.466911315918</v>
       </c>
       <c r="D102" t="n">
-        <v>4.764524845898155</v>
+        <v>4.764513939701165</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3274857352938421</v>
+        <v>0.327472770583892</v>
       </c>
       <c r="F102" t="n">
-        <v>90.91348652016333</v>
+        <v>90.91349552312569</v>
       </c>
       <c r="G102" t="n">
-        <v>-10.77967137857211</v>
+        <v>-10.77964124556191</v>
       </c>
       <c r="H102" t="n">
-        <v>106.2621004335677</v>
+        <v>106.2621126308441</v>
       </c>
       <c r="I102" t="n">
         <v>-0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>197.175586953731</v>
+        <v>197.1756081539698</v>
       </c>
       <c r="L102" t="n">
         <v>-0</v>
@@ -4343,22 +4343,22 @@
         <v>298.3495788574219</v>
       </c>
       <c r="C103" t="n">
-        <v>118.5174789428711</v>
+        <v>118.5174713134766</v>
       </c>
       <c r="D103" t="n">
-        <v>1.773440101736812</v>
+        <v>1.773450696556989</v>
       </c>
       <c r="E103" t="n">
-        <v>0.04268502182713796</v>
+        <v>0.04267858172124495</v>
       </c>
       <c r="F103" t="n">
-        <v>92.525782747999</v>
+        <v>92.52580154274487</v>
       </c>
       <c r="G103" t="n">
-        <v>-9.197402291898333</v>
+        <v>-9.197362171760682</v>
       </c>
       <c r="H103" t="n">
-        <v>106.3074584343317</v>
+        <v>106.307463793422</v>
       </c>
       <c r="I103" t="n">
         <v>-0</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>198.8332411823307</v>
+        <v>198.8332653361668</v>
       </c>
       <c r="L103" t="n">
         <v>-0</v>
@@ -4378,25 +4378,25 @@
         <v>44043</v>
       </c>
       <c r="B104" t="n">
-        <v>315.9200439453125</v>
+        <v>315.9200744628906</v>
       </c>
       <c r="C104" t="n">
-        <v>119.5297622680664</v>
+        <v>119.5297546386719</v>
       </c>
       <c r="D104" t="n">
-        <v>5.889220677025775</v>
+        <v>5.889230905824583</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8541215474919595</v>
+        <v>0.8541216024748222</v>
       </c>
       <c r="F104" t="n">
-        <v>97.97483027717411</v>
+        <v>97.97485964306212</v>
       </c>
       <c r="G104" t="n">
-        <v>-3.849836932396279</v>
+        <v>-3.849785161476053</v>
       </c>
       <c r="H104" t="n">
-        <v>107.2154533434104</v>
+        <v>107.2154588067247</v>
       </c>
       <c r="I104" t="n">
         <v>-0</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>205.1902836205845</v>
+        <v>205.1903184497868</v>
       </c>
       <c r="L104" t="n">
         <v>-0</v>
@@ -4419,31 +4419,31 @@
         <v>337.97021484375</v>
       </c>
       <c r="C105" t="n">
-        <v>118.3705139160156</v>
+        <v>118.3705062866211</v>
       </c>
       <c r="D105" t="n">
-        <v>6.979668217017121</v>
+        <v>6.979657882883128</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.9698407576942736</v>
+        <v>-0.9698408195976671</v>
       </c>
       <c r="F105" t="n">
-        <v>104.8131483667065</v>
+        <v>104.8131696573828</v>
       </c>
       <c r="G105" t="n">
         <v>-0</v>
       </c>
       <c r="H105" t="n">
-        <v>106.1756341783393</v>
+        <v>106.1756395222982</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.9698407576942717</v>
+        <v>-0.9698408195976713</v>
       </c>
       <c r="J105" t="b">
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>210.9887825450458</v>
+        <v>210.9888091796809</v>
       </c>
       <c r="L105" t="n">
         <v>-0</v>
@@ -4454,37 +4454,37 @@
         <v>44104</v>
       </c>
       <c r="B106" t="n">
-        <v>325.3153991699219</v>
+        <v>325.3154296875</v>
       </c>
       <c r="C106" t="n">
         <v>118.7585144042969</v>
       </c>
       <c r="D106" t="n">
-        <v>-3.744358265321901</v>
+        <v>-3.744349235656919</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3277847459178362</v>
+        <v>0.3277912123956561</v>
       </c>
       <c r="F106" t="n">
-        <v>100.8885685826936</v>
+        <v>100.8885985404488</v>
       </c>
       <c r="G106" t="n">
-        <v>-3.744358265321897</v>
+        <v>-3.744349235656921</v>
       </c>
       <c r="H106" t="n">
-        <v>106.5236617110575</v>
+        <v>106.5236739383571</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.6452350018398518</v>
+        <v>-0.6452286601828852</v>
       </c>
       <c r="J106" t="b">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>207.4122302937511</v>
+        <v>207.4122724788059</v>
       </c>
       <c r="L106" t="n">
-        <v>-1.695138579479306</v>
+        <v>-1.6951309952317</v>
       </c>
     </row>
     <row r="107">
@@ -4492,37 +4492,37 @@
         <v>44135</v>
       </c>
       <c r="B107" t="n">
-        <v>317.2041625976562</v>
+        <v>317.2041931152344</v>
       </c>
       <c r="C107" t="n">
-        <v>117.1186981201172</v>
+        <v>117.1186828613281</v>
       </c>
       <c r="D107" t="n">
-        <v>-2.49334540970465</v>
+        <v>-2.493345175805939</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.38079891989652</v>
+        <v>-1.38081176848186</v>
       </c>
       <c r="F107" t="n">
-        <v>98.37306808902031</v>
+        <v>98.37309753580229</v>
       </c>
       <c r="G107" t="n">
-        <v>-6.144343890095243</v>
+        <v>-6.144334860430276</v>
       </c>
       <c r="H107" t="n">
-        <v>105.052784140717</v>
+        <v>105.0527825123971</v>
       </c>
       <c r="I107" t="n">
-        <v>-2.017124523800174</v>
+        <v>-2.017131035391319</v>
       </c>
       <c r="J107" t="b">
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>203.4258522297372</v>
+        <v>203.4258800481994</v>
       </c>
       <c r="L107" t="n">
-        <v>-3.584517728421849</v>
+        <v>-3.584516714837178</v>
       </c>
     </row>
     <row r="108">
@@ -4533,31 +4533,31 @@
         <v>351.7086181640625</v>
       </c>
       <c r="C108" t="n">
-        <v>117.5149765014648</v>
+        <v>117.5149993896484</v>
       </c>
       <c r="D108" t="n">
-        <v>10.87768057135237</v>
+        <v>10.87766990403349</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3383562041828991</v>
+        <v>0.3383888194760099</v>
       </c>
       <c r="F108" t="n">
-        <v>109.0737762039829</v>
+        <v>109.0737983601198</v>
       </c>
       <c r="G108" t="n">
         <v>-0</v>
       </c>
       <c r="H108" t="n">
-        <v>105.4082367535239</v>
+        <v>105.4082693829675</v>
       </c>
       <c r="I108" t="n">
-        <v>-1.685593385589647</v>
+        <v>-1.685567961813252</v>
       </c>
       <c r="J108" t="b">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>214.4820129575068</v>
+        <v>214.4820677430872</v>
       </c>
       <c r="L108" t="n">
         <v>-0</v>
@@ -4571,31 +4571,31 @@
         <v>364.7388305664062</v>
       </c>
       <c r="C109" t="n">
-        <v>117.234748840332</v>
+        <v>117.2347640991211</v>
       </c>
       <c r="D109" t="n">
         <v>3.704831707099521</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.2384612323258373</v>
+        <v>-0.2384676781541417</v>
       </c>
       <c r="F109" t="n">
-        <v>109.1358275110537</v>
+        <v>109.1358518781454</v>
       </c>
       <c r="G109" t="n">
         <v>-0</v>
       </c>
       <c r="H109" t="n">
-        <v>109.1358275110537</v>
+        <v>109.1358518781454</v>
       </c>
       <c r="I109" t="n">
-        <v>-1.920035131156198</v>
+        <v>-1.920016105185145</v>
       </c>
       <c r="J109" t="b">
         <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>218.2716550221074</v>
+        <v>218.2717037562907</v>
       </c>
       <c r="L109" t="n">
         <v>-0</v>
@@ -4606,37 +4606,37 @@
         <v>44227</v>
       </c>
       <c r="B110" t="n">
-        <v>361.02197265625</v>
+        <v>361.0220031738281</v>
       </c>
       <c r="C110" t="n">
-        <v>115.9544067382812</v>
+        <v>115.9544219970703</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.019046396673562</v>
+        <v>-1.019038029706409</v>
       </c>
       <c r="E110" t="n">
-        <v>-1.092118262473996</v>
+        <v>-1.092118120328422</v>
       </c>
       <c r="F110" t="n">
-        <v>108.0236827933224</v>
+        <v>108.023716043463</v>
       </c>
       <c r="G110" t="n">
-        <v>-1.019046396673564</v>
+        <v>-1.019038029706414</v>
       </c>
       <c r="H110" t="n">
-        <v>107.9439352079034</v>
+        <v>107.9439594640094</v>
       </c>
       <c r="I110" t="n">
-        <v>-1.092118262473998</v>
+        <v>-1.092118120328417</v>
       </c>
       <c r="J110" t="b">
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>215.9676180012258</v>
+        <v>215.9676755074723</v>
       </c>
       <c r="L110" t="n">
-        <v>-1.055582329573775</v>
+        <v>-1.055578075017422</v>
       </c>
     </row>
     <row r="111">
@@ -4647,34 +4647,34 @@
         <v>371.0603637695312</v>
       </c>
       <c r="C111" t="n">
-        <v>113.2140197753906</v>
+        <v>113.2140350341797</v>
       </c>
       <c r="D111" t="n">
-        <v>2.780548518812553</v>
+        <v>2.780539830662287</v>
       </c>
       <c r="E111" t="n">
-        <v>-2.363331450676043</v>
+        <v>-2.363331139678193</v>
       </c>
       <c r="F111" t="n">
-        <v>111.0273337051989</v>
+        <v>111.027358494613</v>
       </c>
       <c r="G111" t="n">
         <v>-0</v>
       </c>
       <c r="H111" t="n">
-        <v>105.3928622380376</v>
+        <v>105.3928862565948</v>
       </c>
       <c r="I111" t="n">
-        <v>-3.429639338774424</v>
+        <v>-3.429638892386814</v>
       </c>
       <c r="J111" t="b">
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>216.4201959432365</v>
+        <v>216.4202447512078</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.8482361480620796</v>
+        <v>-0.8482359248682627</v>
       </c>
     </row>
     <row r="112">
@@ -4685,31 +4685,31 @@
         <v>387.90625</v>
       </c>
       <c r="C112" t="n">
-        <v>110.5130996704102</v>
+        <v>110.5131149291992</v>
       </c>
       <c r="D112" t="n">
         <v>4.539931470808312</v>
       </c>
       <c r="E112" t="n">
-        <v>-2.385676359110755</v>
+        <v>-2.385676037573481</v>
       </c>
       <c r="F112" t="n">
-        <v>116.0678985692806</v>
+        <v>116.0679244841171</v>
       </c>
       <c r="G112" t="n">
         <v>-0</v>
       </c>
       <c r="H112" t="n">
-        <v>102.8785296394346</v>
+        <v>102.8785534238642</v>
       </c>
       <c r="I112" t="n">
-        <v>-5.733495602977278</v>
+        <v>-5.733494856729324</v>
       </c>
       <c r="J112" t="b">
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>218.9464282087152</v>
+        <v>218.9464779079813</v>
       </c>
       <c r="L112" t="n">
         <v>-0</v>
@@ -4723,31 +4723,31 @@
         <v>408.4305419921875</v>
       </c>
       <c r="C113" t="n">
-        <v>111.6196136474609</v>
+        <v>111.6196060180664</v>
       </c>
       <c r="D113" t="n">
         <v>5.291044419157331</v>
       </c>
       <c r="E113" t="n">
-        <v>1.001251417570237</v>
+        <v>1.001230568495037</v>
       </c>
       <c r="F113" t="n">
-        <v>122.2091026389637</v>
+        <v>122.2091299249657</v>
       </c>
       <c r="G113" t="n">
         <v>-0</v>
       </c>
       <c r="H113" t="n">
-        <v>103.9086023758248</v>
+        <v>103.9086049491694</v>
       </c>
       <c r="I113" t="n">
-        <v>-4.789650891408181</v>
+        <v>-4.789669791382952</v>
       </c>
       <c r="J113" t="b">
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>226.1177050147885</v>
+        <v>226.1177348741351</v>
       </c>
       <c r="L113" t="n">
         <v>-0</v>
@@ -4767,25 +4767,25 @@
         <v>0.6566093710352217</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4248607299172757</v>
+        <v>0.4248675941314506</v>
       </c>
       <c r="F114" t="n">
-        <v>123.0115390591492</v>
+        <v>123.0115665243137</v>
       </c>
       <c r="G114" t="n">
         <v>-0</v>
       </c>
       <c r="H114" t="n">
-        <v>104.3500692223256</v>
+        <v>104.3500789391125</v>
       </c>
       <c r="I114" t="n">
-        <v>-4.385139507228627</v>
+        <v>-4.38515195206099</v>
       </c>
       <c r="J114" t="b">
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>227.3616082814748</v>
+        <v>227.3616454634262</v>
       </c>
       <c r="L114" t="n">
         <v>-0</v>
@@ -4796,34 +4796,34 @@
         <v>44377</v>
       </c>
       <c r="B115" t="n">
-        <v>420.3325500488281</v>
+        <v>420.3324890136719</v>
       </c>
       <c r="C115" t="n">
-        <v>113.2400665283203</v>
+        <v>113.2400741577148</v>
       </c>
       <c r="D115" t="n">
-        <v>2.242748284152207</v>
+        <v>2.242733437807054</v>
       </c>
       <c r="E115" t="n">
-        <v>1.022558384750072</v>
+        <v>1.022565191006697</v>
       </c>
       <c r="F115" t="n">
-        <v>125.7703782407075</v>
+        <v>125.7703880591247</v>
       </c>
       <c r="G115" t="n">
         <v>-0</v>
       </c>
       <c r="H115" t="n">
-        <v>105.417109604651</v>
+        <v>105.4171265231319</v>
       </c>
       <c r="I115" t="n">
-        <v>-3.407421734192716</v>
+        <v>-3.407427798488817</v>
       </c>
       <c r="J115" t="b">
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>231.1874878453585</v>
+        <v>231.1875145822566</v>
       </c>
       <c r="L115" t="n">
         <v>-0</v>
@@ -4834,34 +4834,34 @@
         <v>44408</v>
       </c>
       <c r="B116" t="n">
-        <v>430.5938720703125</v>
+        <v>430.5939025878906</v>
       </c>
       <c r="C116" t="n">
-        <v>115.4938201904297</v>
+        <v>115.4938278198242</v>
       </c>
       <c r="D116" t="n">
-        <v>2.441238971450677</v>
+        <v>2.441261106962633</v>
       </c>
       <c r="E116" t="n">
-        <v>1.990244028641341</v>
+        <v>1.99024389455138</v>
       </c>
       <c r="F116" t="n">
-        <v>128.8407337288606</v>
+        <v>128.8407716268881</v>
       </c>
       <c r="G116" t="n">
         <v>-0</v>
       </c>
       <c r="H116" t="n">
-        <v>107.5151673337238</v>
+        <v>107.51518444757</v>
       </c>
       <c r="I116" t="n">
-        <v>-1.484993713146773</v>
+        <v>-1.485000027658105</v>
       </c>
       <c r="J116" t="b">
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>236.3559010625844</v>
+        <v>236.3559560744581</v>
       </c>
       <c r="L116" t="n">
         <v>-0</v>
@@ -4875,31 +4875,31 @@
         <v>443.4082946777344</v>
       </c>
       <c r="C117" t="n">
-        <v>115.0382690429688</v>
+        <v>115.0382766723633</v>
       </c>
       <c r="D117" t="n">
-        <v>2.975988149996112</v>
+        <v>2.975980851755833</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.3944376822152096</v>
+        <v>-0.3944376561590968</v>
       </c>
       <c r="F117" t="n">
-        <v>132.6750186969995</v>
+        <v>132.6750483197588</v>
       </c>
       <c r="G117" t="n">
         <v>-0</v>
       </c>
       <c r="H117" t="n">
-        <v>107.0910869996629</v>
+        <v>107.0911040740199</v>
       </c>
       <c r="I117" t="n">
-        <v>-1.873574020578806</v>
+        <v>-1.873580284514146</v>
       </c>
       <c r="J117" t="b">
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>239.7661056966624</v>
+        <v>239.7661523937786</v>
       </c>
       <c r="L117" t="n">
         <v>-0</v>
@@ -4913,34 +4913,34 @@
         <v>422.7430419921875</v>
       </c>
       <c r="C118" t="n">
-        <v>113.2010345458984</v>
+        <v>113.2010192871094</v>
       </c>
       <c r="D118" t="n">
         <v>-4.660547160166728</v>
       </c>
       <c r="E118" t="n">
-        <v>-1.59706375309252</v>
+        <v>-1.597083543320577</v>
       </c>
       <c r="F118" t="n">
-        <v>126.4916368808658</v>
+        <v>126.4916651230424</v>
       </c>
       <c r="G118" t="n">
-        <v>-4.660547160166731</v>
+        <v>-4.660547160166726</v>
       </c>
       <c r="H118" t="n">
-        <v>105.3807740663985</v>
+        <v>105.3807696744934</v>
       </c>
       <c r="I118" t="n">
-        <v>-3.440715602101302</v>
+        <v>-3.440741185439853</v>
       </c>
       <c r="J118" t="b">
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>231.8724109472643</v>
+        <v>231.8724347975358</v>
       </c>
       <c r="L118" t="n">
-        <v>-3.292247970772282</v>
+        <v>-3.292256858373662</v>
       </c>
     </row>
     <row r="119">
@@ -4948,34 +4948,34 @@
         <v>44500</v>
       </c>
       <c r="B119" t="n">
-        <v>452.4041748046875</v>
+        <v>452.4042053222656</v>
       </c>
       <c r="C119" t="n">
-        <v>112.6996231079102</v>
+        <v>112.6996307373047</v>
       </c>
       <c r="D119" t="n">
-        <v>7.016350327783316</v>
+        <v>7.016357546726049</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.4429389183585375</v>
+        <v>-0.4429187590025419</v>
       </c>
       <c r="F119" t="n">
-        <v>135.3667332597749</v>
+        <v>135.3667726148824</v>
       </c>
       <c r="G119" t="n">
         <v>-0</v>
       </c>
       <c r="H119" t="n">
-        <v>104.9140016055909</v>
+        <v>104.9140184772238</v>
       </c>
       <c r="I119" t="n">
-        <v>-3.8684142519881</v>
+        <v>-3.868420256283351</v>
       </c>
       <c r="J119" t="b">
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>240.2807348653658</v>
+        <v>240.2807910921063</v>
       </c>
       <c r="L119" t="n">
         <v>-0</v>
@@ -4986,34 +4986,34 @@
         <v>44530</v>
       </c>
       <c r="B120" t="n">
-        <v>448.7691955566406</v>
+        <v>448.7692260742188</v>
       </c>
       <c r="C120" t="n">
-        <v>113.9304275512695</v>
+        <v>113.9304428100586</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.8034804828262687</v>
+        <v>-0.8034804286263242</v>
       </c>
       <c r="E120" t="n">
-        <v>1.092110523014678</v>
+        <v>1.092117218753663</v>
       </c>
       <c r="F120" t="n">
-        <v>134.2790879777931</v>
+        <v>134.2791270900588</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.803480482826273</v>
+        <v>-0.8034804286263181</v>
       </c>
       <c r="H120" t="n">
-        <v>106.0597784572414</v>
+        <v>106.0598025379</v>
       </c>
       <c r="I120" t="n">
-        <v>-2.818551088093178</v>
+        <v>-2.81855072124231</v>
       </c>
       <c r="J120" t="b">
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>240.3388664350345</v>
+        <v>240.3389296279587</v>
       </c>
       <c r="L120" t="n">
         <v>-0</v>
@@ -5024,34 +5024,34 @@
         <v>44561</v>
       </c>
       <c r="B121" t="n">
-        <v>469.5238037109375</v>
+        <v>469.5237731933594</v>
       </c>
       <c r="C121" t="n">
-        <v>113.3333969116211</v>
+        <v>113.3334045410156</v>
       </c>
       <c r="D121" t="n">
-        <v>4.624784490511535</v>
+        <v>4.624770575446768</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.5240308954162165</v>
+        <v>-0.5240375217696047</v>
       </c>
       <c r="F121" t="n">
-        <v>122.996599431553</v>
+        <v>122.9966190128866</v>
       </c>
       <c r="G121" t="n">
         <v>-0</v>
       </c>
       <c r="H121" t="n">
-        <v>122.996599431553</v>
+        <v>122.9966190128866</v>
       </c>
       <c r="I121" t="n">
-        <v>-3.327811905004697</v>
+        <v>-3.327817979662501</v>
       </c>
       <c r="J121" t="b">
         <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>245.9931988631059</v>
+        <v>245.9932380257732</v>
       </c>
       <c r="L121" t="n">
         <v>-0</v>
@@ -5065,34 +5065,34 @@
         <v>444.760498046875</v>
       </c>
       <c r="C122" t="n">
-        <v>110.938606262207</v>
+        <v>110.9386138916016</v>
       </c>
       <c r="D122" t="n">
-        <v>-5.274132103280548</v>
+        <v>-5.274125946395126</v>
       </c>
       <c r="E122" t="n">
-        <v>-2.113049387623622</v>
+        <v>-2.113049245377063</v>
       </c>
       <c r="F122" t="n">
-        <v>116.50959629499</v>
+        <v>116.5096224163392</v>
       </c>
       <c r="G122" t="n">
-        <v>-13.93040705842933</v>
+        <v>-13.93041278467334</v>
       </c>
       <c r="H122" t="n">
-        <v>120.3976205404666</v>
+        <v>120.3976398829955</v>
       </c>
       <c r="I122" t="n">
-        <v>-2.113049387623618</v>
+        <v>-2.113049245377067</v>
       </c>
       <c r="J122" t="b">
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>236.9072168354567</v>
+        <v>236.9072622993347</v>
       </c>
       <c r="L122" t="n">
-        <v>-3.69359074545209</v>
+        <v>-3.693587595886092</v>
       </c>
     </row>
     <row r="123">
@@ -5103,34 +5103,34 @@
         <v>431.6325073242188</v>
       </c>
       <c r="C123" t="n">
-        <v>110.6012344360352</v>
+        <v>110.6012420654297</v>
       </c>
       <c r="D123" t="n">
         <v>-2.951698898689659</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.3041067826059396</v>
+        <v>-0.3041067616921245</v>
       </c>
       <c r="F123" t="n">
-        <v>113.070583824283</v>
+        <v>113.0706091746086</v>
       </c>
       <c r="G123" t="n">
-        <v>-16.47092228539234</v>
+        <v>-16.47092784261488</v>
       </c>
       <c r="H123" t="n">
-        <v>120.0314832103069</v>
+        <v>120.0315025191936</v>
       </c>
       <c r="I123" t="n">
-        <v>-2.410730243721977</v>
+        <v>-2.410730081436117</v>
       </c>
       <c r="J123" t="b">
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>233.10206703459</v>
+        <v>233.1021116938022</v>
       </c>
       <c r="L123" t="n">
-        <v>-5.240442373242102</v>
+        <v>-5.240439304522827</v>
       </c>
     </row>
     <row r="124">
@@ -5138,37 +5138,37 @@
         <v>44651</v>
       </c>
       <c r="B124" t="n">
-        <v>447.8577575683594</v>
+        <v>447.8577270507812</v>
       </c>
       <c r="C124" t="n">
-        <v>106.1098175048828</v>
+        <v>106.1098098754883</v>
       </c>
       <c r="D124" t="n">
-        <v>3.75904269692855</v>
+        <v>3.759035626659823</v>
       </c>
       <c r="E124" t="n">
-        <v>-4.060910309052557</v>
+        <v>-4.060923825145069</v>
       </c>
       <c r="F124" t="n">
-        <v>117.3209553479042</v>
+        <v>117.3209736567634</v>
       </c>
       <c r="G124" t="n">
-        <v>-13.33102858974961</v>
+        <v>-13.33104026160038</v>
       </c>
       <c r="H124" t="n">
-        <v>115.1571123345109</v>
+        <v>115.157114635712</v>
       </c>
       <c r="I124" t="n">
-        <v>-6.373742959783783</v>
+        <v>-6.373755994344206</v>
       </c>
       <c r="J124" t="b">
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>232.4780676824151</v>
+        <v>232.4780882924754</v>
       </c>
       <c r="L124" t="n">
-        <v>-5.494107659542204</v>
+        <v>-5.49411432678557</v>
       </c>
     </row>
     <row r="125">
@@ -5179,34 +5179,34 @@
         <v>408.5496826171875</v>
       </c>
       <c r="C125" t="n">
-        <v>101.6232070922852</v>
+        <v>101.6231994628906</v>
       </c>
       <c r="D125" t="n">
-        <v>-8.776910589780741</v>
+        <v>-8.776904373726868</v>
       </c>
       <c r="E125" t="n">
-        <v>-4.228270784078203</v>
+        <v>-4.228271088094826</v>
       </c>
       <c r="F125" t="n">
-        <v>107.0237999939421</v>
+        <v>107.023823988584</v>
       </c>
       <c r="G125" t="n">
-        <v>-20.93788671950992</v>
+        <v>-20.93789197954356</v>
       </c>
       <c r="H125" t="n">
-        <v>110.2879577978826</v>
+        <v>110.287959651686</v>
       </c>
       <c r="I125" t="n">
-        <v>-10.33251463244121</v>
+        <v>-10.33252740050446</v>
       </c>
       <c r="J125" t="b">
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>217.3117577918247</v>
+        <v>217.31178364027</v>
       </c>
       <c r="L125" t="n">
-        <v>-11.65944473417831</v>
+        <v>-11.65944829040307</v>
       </c>
     </row>
     <row r="126">
@@ -5223,28 +5223,28 @@
         <v>0.2257279181938632</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6183953897148431</v>
+        <v>0.6184029436733907</v>
       </c>
       <c r="F126" t="n">
-        <v>107.2653825896404</v>
+        <v>107.2654066384449</v>
       </c>
       <c r="G126" t="n">
-        <v>-20.75942145712179</v>
+        <v>-20.7594267290288</v>
       </c>
       <c r="H126" t="n">
-        <v>110.9699734443154</v>
+        <v>110.9699836406893</v>
       </c>
       <c r="I126" t="n">
-        <v>-9.778015036854994</v>
+        <v>-9.778021110431657</v>
       </c>
       <c r="J126" t="b">
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>218.2353560339558</v>
+        <v>218.2353902791342</v>
       </c>
       <c r="L126" t="n">
-        <v>-11.28398791407125</v>
+        <v>-11.28398811666957</v>
       </c>
     </row>
     <row r="127">
@@ -5255,34 +5255,34 @@
         <v>375.7066650390625</v>
       </c>
       <c r="C127" t="n">
-        <v>101.3687515258789</v>
+        <v>101.3687362670898</v>
       </c>
       <c r="D127" t="n">
         <v>-8.24604296976168</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.8634470715421338</v>
+        <v>-0.863461994323822</v>
       </c>
       <c r="F127" t="n">
-        <v>98.42023304961937</v>
+        <v>98.42025511534914</v>
       </c>
       <c r="G127" t="n">
-        <v>-27.29363361325528</v>
+        <v>-27.29363845043858</v>
       </c>
       <c r="H127" t="n">
-        <v>110.0118064583194</v>
+        <v>110.0118000068446</v>
       </c>
       <c r="I127" t="n">
-        <v>-10.55703412390646</v>
+        <v>-10.55705360866994</v>
       </c>
       <c r="J127" t="b">
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>208.4320395079387</v>
+        <v>208.4320551221938</v>
       </c>
       <c r="L127" t="n">
-        <v>-15.26918611114521</v>
+        <v>-15.26919325304546</v>
       </c>
     </row>
     <row r="128">
@@ -5299,28 +5299,28 @@
         <v>9.208745303852872</v>
       </c>
       <c r="E128" t="n">
-        <v>2.961463820140664</v>
+        <v>2.961479318679117</v>
       </c>
       <c r="F128" t="n">
-        <v>107.4835016386172</v>
+        <v>107.4835257363239</v>
       </c>
       <c r="G128" t="n">
-        <v>-20.59828951301387</v>
+        <v>-20.59829479564105</v>
       </c>
       <c r="H128" t="n">
-        <v>113.2697663044657</v>
+        <v>113.269776712154</v>
       </c>
       <c r="I128" t="n">
-        <v>-7.908213049825193</v>
+        <v>-7.908219249273453</v>
       </c>
       <c r="J128" t="b">
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>220.7532679430829</v>
+        <v>220.7533024484778</v>
       </c>
       <c r="L128" t="n">
-        <v>-10.26041818906908</v>
+        <v>-10.26041844884001</v>
       </c>
     </row>
     <row r="129">
@@ -5331,34 +5331,34 @@
         <v>393.5632934570312</v>
       </c>
       <c r="C129" t="n">
-        <v>100.3484802246094</v>
+        <v>100.3484725952148</v>
       </c>
       <c r="D129" t="n">
         <v>-4.080198981633054</v>
       </c>
       <c r="E129" t="n">
-        <v>-3.853828957031913</v>
+        <v>-3.853836266929078</v>
       </c>
       <c r="F129" t="n">
-        <v>103.0979608993348</v>
+        <v>103.0979840138071</v>
       </c>
       <c r="G129" t="n">
-        <v>-23.8380372957031</v>
+        <v>-23.83804236278858</v>
       </c>
       <c r="H129" t="n">
-        <v>108.9045432510618</v>
+        <v>108.9045449777514</v>
       </c>
       <c r="I129" t="n">
-        <v>-11.45727300235917</v>
+        <v>-11.45728569470576</v>
       </c>
       <c r="J129" t="b">
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>212.0025041503966</v>
+        <v>212.0025289915584</v>
       </c>
       <c r="L129" t="n">
-        <v>-13.81773759185308</v>
+        <v>-13.81774121394892</v>
       </c>
     </row>
     <row r="130">
@@ -5375,28 +5375,28 @@
         <v>-9.24458692823249</v>
       </c>
       <c r="E130" t="n">
-        <v>-4.734972031972317</v>
+        <v>-4.734964789067031</v>
       </c>
       <c r="F130" t="n">
-        <v>93.56698028276068</v>
+        <v>93.56700126039544</v>
       </c>
       <c r="G130" t="n">
-        <v>-30.87889614414984</v>
+        <v>-30.8789007428042</v>
       </c>
       <c r="H130" t="n">
-        <v>103.7479435865768</v>
+        <v>103.7479531193612</v>
       </c>
       <c r="I130" t="n">
-        <v>-15.64974636204307</v>
+        <v>-15.64975204034566</v>
       </c>
       <c r="J130" t="b">
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>197.3149238693375</v>
+        <v>197.3149543797566</v>
       </c>
       <c r="L130" t="n">
-        <v>-19.78846375377136</v>
+        <v>-19.78846412067491</v>
       </c>
     </row>
     <row r="131">
@@ -5416,25 +5416,25 @@
         <v>-1.45401976729459</v>
       </c>
       <c r="F131" t="n">
-        <v>101.1716876546448</v>
+        <v>101.1717103372483</v>
       </c>
       <c r="G131" t="n">
-        <v>-25.26104071633926</v>
+        <v>-25.26104568875176</v>
       </c>
       <c r="H131" t="n">
-        <v>102.2394279786663</v>
+        <v>102.2394373728421</v>
       </c>
       <c r="I131" t="n">
-        <v>-16.87621572370209</v>
+        <v>-16.87622131944104</v>
       </c>
       <c r="J131" t="b">
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>203.4111156333112</v>
+        <v>203.4111477100904</v>
       </c>
       <c r="L131" t="n">
-        <v>-17.31026850603763</v>
+        <v>-17.31026863072607</v>
       </c>
     </row>
     <row r="132">
@@ -5442,37 +5442,37 @@
         <v>44895</v>
       </c>
       <c r="B132" t="n">
-        <v>372.6900939941406</v>
+        <v>376.3500061035156</v>
       </c>
       <c r="C132" t="n">
-        <v>93.45999908447266</v>
+        <v>93.41999816894531</v>
       </c>
       <c r="D132" t="n">
-        <v>-3.500659682573248</v>
+        <v>-2.553011462602039</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.7929444850586331</v>
+        <v>-0.8354051429469656</v>
       </c>
       <c r="F132" t="n">
-        <v>97.63001117473972</v>
+        <v>98.5887849754278</v>
       </c>
       <c r="G132" t="n">
-        <v>-27.87739733115721</v>
+        <v>-27.16913975934683</v>
       </c>
       <c r="H132" t="n">
-        <v>101.428726072954</v>
+        <v>101.3853238549094</v>
       </c>
       <c r="I132" t="n">
-        <v>-17.53534118689302</v>
+        <v>-17.57064164155028</v>
       </c>
       <c r="J132" t="b">
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>199.0587372476937</v>
+        <v>199.9741088303372</v>
       </c>
       <c r="L132" t="n">
-        <v>-19.07957692827556</v>
+        <v>-18.70747731310179</v>
       </c>
     </row>
   </sheetData>
